--- a/data/company_address.xlsx
+++ b/data/company_address.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P277"/>
+  <dimension ref="A1:Q277"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -501,10 +501,15 @@
       </c>
       <c r="O1" s="1" t="inlineStr">
         <is>
+          <t>Actual Address</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
           <t>lat</t>
         </is>
       </c>
-      <c r="P1" s="1" t="inlineStr">
+      <c r="Q1" s="1" t="inlineStr">
         <is>
           <t>lng</t>
         </is>
@@ -577,10 +582,15 @@
           <t>NA</t>
         </is>
       </c>
-      <c r="O2" t="n">
+      <c r="O2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">2000 Simcoe Street North Oshawa L1G 7V9 Canada </t>
+        </is>
+      </c>
+      <c r="P2" t="n">
         <v>43.945172</v>
       </c>
-      <c r="P2" t="n">
+      <c r="Q2" t="n">
         <v>-78.892247</v>
       </c>
     </row>
@@ -651,10 +661,15 @@
           <t>NA</t>
         </is>
       </c>
-      <c r="O3" t="n">
+      <c r="O3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">131 Citation Drive Units 17 &amp; 18 Concord L4K 2R3 </t>
+        </is>
+      </c>
+      <c r="P3" t="n">
         <v>43.824476</v>
       </c>
-      <c r="P3" t="n">
+      <c r="Q3" t="n">
         <v>-79.48681999999999</v>
       </c>
     </row>
@@ -725,10 +740,15 @@
           <t>NA</t>
         </is>
       </c>
-      <c r="O4" t="n">
+      <c r="O4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">1957 Turner Ave Rossland V0G 1Y0 </t>
+        </is>
+      </c>
+      <c r="P4" t="n">
         <v>49.082615</v>
       </c>
-      <c r="P4" t="n">
+      <c r="Q4" t="n">
         <v>-117.800771</v>
       </c>
     </row>
@@ -799,10 +819,15 @@
           <t>ISO 9001:2015</t>
         </is>
       </c>
-      <c r="O5" t="n">
+      <c r="O5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">540 Mara Road  Beaverton Canada L0K1A0 </t>
+        </is>
+      </c>
+      <c r="P5" t="n">
         <v>44.436728</v>
       </c>
-      <c r="P5" t="n">
+      <c r="Q5" t="n">
         <v>-79.14971799999999</v>
       </c>
     </row>
@@ -873,10 +898,15 @@
           <t>NA</t>
         </is>
       </c>
-      <c r="O6" t="n">
+      <c r="O6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">100 College Blvd., Box 5005 Red Deer T4N 5H5 </t>
+        </is>
+      </c>
+      <c r="P6" t="n">
         <v>52.24719</v>
       </c>
-      <c r="P6" t="n">
+      <c r="Q6" t="n">
         <v>-113.82685</v>
       </c>
     </row>
@@ -947,10 +977,15 @@
           <t>NA</t>
         </is>
       </c>
-      <c r="O7" t="n">
+      <c r="O7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">347 Jane Street Toronto M6S 3Z3 </t>
+        </is>
+      </c>
+      <c r="P7" t="n">
         <v>43.657223</v>
       </c>
-      <c r="P7" t="n">
+      <c r="Q7" t="n">
         <v>-79.487731</v>
       </c>
     </row>
@@ -1021,10 +1056,15 @@
           <t>NA</t>
         </is>
       </c>
-      <c r="O8" t="n">
+      <c r="O8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">4100A Sladeview Crescent Mississauga L5L 5Z3 </t>
+        </is>
+      </c>
+      <c r="P8" t="n">
         <v>43.527873</v>
       </c>
-      <c r="P8" t="n">
+      <c r="Q8" t="n">
         <v>-79.71907</v>
       </c>
     </row>
@@ -1095,10 +1135,15 @@
           <t>NA</t>
         </is>
       </c>
-      <c r="O9" t="n">
+      <c r="O9" t="inlineStr">
+        <is>
+          <t>9494 Boulevard Saint-Laurent Suite 600 Montreal Quebec QC H2N 1P4 Canada</t>
+        </is>
+      </c>
+      <c r="P9" t="n">
         <v>45.545297</v>
       </c>
-      <c r="P9" t="n">
+      <c r="Q9" t="n">
         <v>-73.65406400000001</v>
       </c>
     </row>
@@ -1169,10 +1214,15 @@
           <t>NA</t>
         </is>
       </c>
-      <c r="O10" t="n">
+      <c r="O10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">119 Hillsdale Ave West Toronto M5P 1G6 </t>
+        </is>
+      </c>
+      <c r="P10" t="n">
         <v>43.702194</v>
       </c>
-      <c r="P10" t="n">
+      <c r="Q10" t="n">
         <v>-79.403053</v>
       </c>
     </row>
@@ -1243,10 +1293,15 @@
           <t>NA</t>
         </is>
       </c>
-      <c r="O11" t="n">
+      <c r="O11" t="inlineStr">
+        <is>
+          <t>6956, rue Jarry Est Saint-Léonard H1P 3C1 Canada</t>
+        </is>
+      </c>
+      <c r="P11" t="n">
         <v>45.599094</v>
       </c>
-      <c r="P11" t="n">
+      <c r="Q11" t="n">
         <v>-73.57776699999999</v>
       </c>
     </row>
@@ -1317,10 +1372,15 @@
           <t>NA</t>
         </is>
       </c>
-      <c r="O12" t="n">
+      <c r="O12" t="inlineStr">
+        <is>
+          <t xml:space="preserve">620 Cathcart Montreal H3B 3C4 </t>
+        </is>
+      </c>
+      <c r="P12" t="n">
         <v>45.503364</v>
       </c>
-      <c r="P12" t="n">
+      <c r="Q12" t="n">
         <v>-73.568381</v>
       </c>
     </row>
@@ -1391,10 +1451,15 @@
           <t>NA</t>
         </is>
       </c>
-      <c r="O13" t="n">
+      <c r="O13" t="inlineStr">
+        <is>
+          <t xml:space="preserve">30 International Blvd. Unit 1 M9W 1A2 </t>
+        </is>
+      </c>
+      <c r="P13" t="n">
         <v>43.677537</v>
       </c>
-      <c r="P13" t="n">
+      <c r="Q13" t="n">
         <v>-79.588595</v>
       </c>
     </row>
@@ -1465,10 +1530,15 @@
           <t>NA</t>
         </is>
       </c>
-      <c r="O14" t="n">
+      <c r="O14" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Canada </t>
+        </is>
+      </c>
+      <c r="P14" t="n">
         <v>45.421291</v>
       </c>
-      <c r="P14" t="n">
+      <c r="Q14" t="n">
         <v>-75.69760100000001</v>
       </c>
     </row>
@@ -1539,10 +1609,15 @@
           <t>ISO 9001:2015, ISO 17025:2017</t>
         </is>
       </c>
-      <c r="O15" t="n">
+      <c r="O15" t="inlineStr">
+        <is>
+          <t xml:space="preserve">3095, Westinghouse Trois-Rivières G9A 5E1 </t>
+        </is>
+      </c>
+      <c r="P15" t="n">
         <v>46.353383</v>
       </c>
-      <c r="P15" t="n">
+      <c r="Q15" t="n">
         <v>-72.60360900000001</v>
       </c>
     </row>
@@ -1613,10 +1688,15 @@
           <t>NA</t>
         </is>
       </c>
-      <c r="O16" t="n">
+      <c r="O16" t="inlineStr">
+        <is>
+          <t xml:space="preserve">500 Palladium Dr Ottawa K2V 1C2 </t>
+        </is>
+      </c>
+      <c r="P16" t="n">
         <v>45.2976</v>
       </c>
-      <c r="P16" t="n">
+      <c r="Q16" t="n">
         <v>-75.91579</v>
       </c>
     </row>
@@ -1687,10 +1767,15 @@
           <t>NA</t>
         </is>
       </c>
-      <c r="O17" t="n">
+      <c r="O17" t="inlineStr">
+        <is>
+          <t>202 6 Ave SW Calgary T2L 1Y8 Canada</t>
+        </is>
+      </c>
+      <c r="P17" t="n">
         <v>51.047522</v>
       </c>
-      <c r="P17" t="n">
+      <c r="Q17" t="n">
         <v>-114.065789</v>
       </c>
     </row>
@@ -1761,10 +1846,15 @@
           <t>NA</t>
         </is>
       </c>
-      <c r="O18" t="n">
+      <c r="O18" t="inlineStr">
+        <is>
+          <t xml:space="preserve">60 Commerce Crescent North Bay P1A0B4 </t>
+        </is>
+      </c>
+      <c r="P18" t="n">
         <v>46.314738</v>
       </c>
-      <c r="P18" t="n">
+      <c r="Q18" t="n">
         <v>-79.427852</v>
       </c>
     </row>
@@ -1835,10 +1925,15 @@
           <t>NA</t>
         </is>
       </c>
-      <c r="O19" t="n">
+      <c r="O19" t="inlineStr">
+        <is>
+          <t>4 - 585 Michigan Drive Oakville Ontario L6L 0G1 Canada</t>
+        </is>
+      </c>
+      <c r="P19" t="n">
         <v>43.388799</v>
       </c>
-      <c r="P19" t="n">
+      <c r="Q19" t="n">
         <v>-79.735226</v>
       </c>
     </row>
@@ -1909,10 +2004,15 @@
           <t>ISO 9001</t>
         </is>
       </c>
-      <c r="O20" t="n">
+      <c r="O20" t="inlineStr">
+        <is>
+          <t xml:space="preserve">2070 Fasan Drive Oldcastle N0R1L0 </t>
+        </is>
+      </c>
+      <c r="P20" t="n">
         <v>42.231098</v>
       </c>
-      <c r="P20" t="n">
+      <c r="Q20" t="n">
         <v>-82.97169</v>
       </c>
     </row>
@@ -1983,10 +2083,15 @@
           <t>NA</t>
         </is>
       </c>
-      <c r="O21" t="n">
+      <c r="O21" t="inlineStr">
+        <is>
+          <t>1100 Avenue Atwater, Suite 3000 Westmount H3Z 2Y4 Canada</t>
+        </is>
+      </c>
+      <c r="P21" t="n">
         <v>45.488321</v>
       </c>
-      <c r="P21" t="n">
+      <c r="Q21" t="n">
         <v>-73.58349</v>
       </c>
     </row>
@@ -2057,10 +2162,15 @@
           <t>NA</t>
         </is>
       </c>
-      <c r="O22" t="n">
+      <c r="O22" t="inlineStr">
+        <is>
+          <t xml:space="preserve">845 Sherbrooke St W, Montreal H3A 0G4 </t>
+        </is>
+      </c>
+      <c r="P22" t="n">
         <v>45.504406</v>
       </c>
-      <c r="P22" t="n">
+      <c r="Q22" t="n">
         <v>-73.574921</v>
       </c>
     </row>
@@ -2131,10 +2241,15 @@
           <t>NA</t>
         </is>
       </c>
-      <c r="O23" t="n">
+      <c r="O23" t="inlineStr">
+        <is>
+          <t>36 Fieldway Rd 3rd Floor Etobicoke ON M8Z 3L2 Canada</t>
+        </is>
+      </c>
+      <c r="P23" t="n">
         <v>43.641533</v>
       </c>
-      <c r="P23" t="n">
+      <c r="Q23" t="n">
         <v>-79.528368</v>
       </c>
     </row>
@@ -2205,10 +2320,15 @@
           <t>NA</t>
         </is>
       </c>
-      <c r="O24" t="n">
+      <c r="O24" t="inlineStr">
+        <is>
+          <t xml:space="preserve">110 Spadina Avenue, Suite 600 Toronto M5V2K4 </t>
+        </is>
+      </c>
+      <c r="P24" t="n">
         <v>43.646945</v>
       </c>
-      <c r="P24" t="n">
+      <c r="Q24" t="n">
         <v>-79.39578400000001</v>
       </c>
     </row>
@@ -2279,10 +2399,15 @@
           <t>NA</t>
         </is>
       </c>
-      <c r="O25" t="n">
+      <c r="O25" t="inlineStr">
+        <is>
+          <t>200 University Ave W Waterloo N2L 3G1 Canada</t>
+        </is>
+      </c>
+      <c r="P25" t="n">
         <v>43.469604</v>
       </c>
-      <c r="P25" t="n">
+      <c r="Q25" t="n">
         <v>-80.538708</v>
       </c>
     </row>
@@ -2353,10 +2478,15 @@
           <t>NA</t>
         </is>
       </c>
-      <c r="O26" t="n">
+      <c r="O26" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Office 390 55, rue de Louvain Ouest Montreal Canada H2N 1A4 </t>
+        </is>
+      </c>
+      <c r="P26" t="n">
         <v>45.544334</v>
       </c>
-      <c r="P26" t="n">
+      <c r="Q26" t="n">
         <v>-73.655427</v>
       </c>
     </row>
@@ -2427,10 +2557,15 @@
           <t>NA</t>
         </is>
       </c>
-      <c r="O27" t="n">
+      <c r="O27" t="inlineStr">
+        <is>
+          <t xml:space="preserve">4655 G.N. Booth Drive Windsor N9C 4G8 </t>
+        </is>
+      </c>
+      <c r="P27" t="n">
         <v>42.277728</v>
       </c>
-      <c r="P27" t="n">
+      <c r="Q27" t="n">
         <v>-83.082825</v>
       </c>
     </row>
@@ -2501,10 +2636,15 @@
           <t>NA</t>
         </is>
       </c>
-      <c r="O28" t="n">
+      <c r="O28" t="inlineStr">
+        <is>
+          <t>Park - #301, 175 Longwood Rd S, Hamilton, ON L8P 0A1 Canada</t>
+        </is>
+      </c>
+      <c r="P28" t="n">
         <v>43.25689</v>
       </c>
-      <c r="P28" t="n">
+      <c r="Q28" t="n">
         <v>-79.90089999999999</v>
       </c>
     </row>
@@ -2575,10 +2715,15 @@
           <t>NA</t>
         </is>
       </c>
-      <c r="O29" t="n">
+      <c r="O29" t="inlineStr">
+        <is>
+          <t xml:space="preserve">50 Rue de l'Atmosphère Gatineau Canada J9A 2W5 </t>
+        </is>
+      </c>
+      <c r="P29" t="n">
         <v>45.439589</v>
       </c>
-      <c r="P29" t="n">
+      <c r="Q29" t="n">
         <v>-75.77511</v>
       </c>
     </row>
@@ -2649,10 +2794,15 @@
           <t>NA</t>
         </is>
       </c>
-      <c r="O30" t="n">
+      <c r="O30" t="inlineStr">
+        <is>
+          <t xml:space="preserve">285 Dundas St W Toronto Canada M5T1G1 </t>
+        </is>
+      </c>
+      <c r="P30" t="n">
         <v>43.654403</v>
       </c>
-      <c r="P30" t="n">
+      <c r="Q30" t="n">
         <v>-79.390967</v>
       </c>
     </row>
@@ -2723,10 +2873,15 @@
           <t>ISO 13485:2016, AS9100D, ISO 9001</t>
         </is>
       </c>
-      <c r="O31" t="n">
+      <c r="O31" t="inlineStr">
+        <is>
+          <t>1595 Buffalo Place Unit A Winnipeg Manitoba MB R3T1L9 Canada</t>
+        </is>
+      </c>
+      <c r="P31" t="n">
         <v>49.83458</v>
       </c>
-      <c r="P31" t="n">
+      <c r="Q31" t="n">
         <v>-97.17618400000001</v>
       </c>
     </row>
@@ -2797,10 +2952,15 @@
           <t>NA</t>
         </is>
       </c>
-      <c r="O32" t="n">
+      <c r="O32" t="inlineStr">
+        <is>
+          <t xml:space="preserve">720, rue Longpré Sherbrooke J1G 4L3 </t>
+        </is>
+      </c>
+      <c r="P32" t="n">
         <v>45.397079</v>
       </c>
-      <c r="P32" t="n">
+      <c r="Q32" t="n">
         <v>-71.859517</v>
       </c>
     </row>
@@ -2871,10 +3031,15 @@
           <t>NA</t>
         </is>
       </c>
-      <c r="O33" t="n">
+      <c r="O33" t="inlineStr">
+        <is>
+          <t xml:space="preserve">2767 Brighton Rd. Oakville L6H 6J4 </t>
+        </is>
+      </c>
+      <c r="P33" t="n">
         <v>43.511624</v>
       </c>
-      <c r="P33" t="n">
+      <c r="Q33" t="n">
         <v>-79.68321400000001</v>
       </c>
     </row>
@@ -2945,10 +3110,15 @@
           <t>NA</t>
         </is>
       </c>
-      <c r="O34" t="n">
+      <c r="O34" t="inlineStr">
+        <is>
+          <t xml:space="preserve">6260 Highway 7 Unit 8 Vaughan Canada L4H 4G3 </t>
+        </is>
+      </c>
+      <c r="P34" t="n">
         <v>43.772556</v>
       </c>
-      <c r="P34" t="n">
+      <c r="Q34" t="n">
         <v>-79.624199</v>
       </c>
     </row>
@@ -3019,10 +3189,15 @@
           <t>NA</t>
         </is>
       </c>
-      <c r="O35" t="n">
+      <c r="O35" t="inlineStr">
+        <is>
+          <t xml:space="preserve">45 Ch. De L'Aéroport Saint-Jean-Sur-Richelieu J3B 7B5 </t>
+        </is>
+      </c>
+      <c r="P35" t="n">
         <v>45.296571</v>
       </c>
-      <c r="P35" t="n">
+      <c r="Q35" t="n">
         <v>-73.282856</v>
       </c>
     </row>
@@ -3093,10 +3268,15 @@
           <t>NA</t>
         </is>
       </c>
-      <c r="O36" t="n">
+      <c r="O36" t="inlineStr">
+        <is>
+          <t xml:space="preserve">100 College Blvd Red Deer T4N 5H5 </t>
+        </is>
+      </c>
+      <c r="P36" t="n">
         <v>52.24674</v>
       </c>
-      <c r="P36" t="n">
+      <c r="Q36" t="n">
         <v>-113.827648</v>
       </c>
     </row>
@@ -3167,10 +3347,15 @@
           <t>NA</t>
         </is>
       </c>
-      <c r="O37" t="n">
+      <c r="O37" t="inlineStr">
+        <is>
+          <t xml:space="preserve">302 Carlaw Unit 108 Toronto Canada M4M3L1 </t>
+        </is>
+      </c>
+      <c r="P37" t="n">
         <v>43.66366</v>
       </c>
-      <c r="P37" t="n">
+      <c r="Q37" t="n">
         <v>-79.34116400000001</v>
       </c>
     </row>
@@ -3241,10 +3426,15 @@
           <t>ISO 9001:2015, AS 9100:2016</t>
         </is>
       </c>
-      <c r="O38" t="n">
+      <c r="O38" t="inlineStr">
+        <is>
+          <t xml:space="preserve">11A Rue du Pacifique E Bromont J2L 1J4 </t>
+        </is>
+      </c>
+      <c r="P38" t="n">
         <v>45.308061</v>
       </c>
-      <c r="P38" t="n">
+      <c r="Q38" t="n">
         <v>-72.66977</v>
       </c>
     </row>
@@ -3315,10 +3505,15 @@
           <t>NA</t>
         </is>
       </c>
-      <c r="O39" t="n">
+      <c r="O39" t="inlineStr">
+        <is>
+          <t xml:space="preserve">1301 16 Ave. NW. Calgary Canada T2M 0L4 </t>
+        </is>
+      </c>
+      <c r="P39" t="n">
         <v>51.066819</v>
       </c>
-      <c r="P39" t="n">
+      <c r="Q39" t="n">
         <v>-114.089839</v>
       </c>
     </row>
@@ -3389,11 +3584,16 @@
           <t>NA</t>
         </is>
       </c>
-      <c r="O40" t="n">
-        <v>49.26291</v>
+      <c r="O40" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Vancouver V6T 1Z4 </t>
+        </is>
       </c>
       <c r="P40" t="n">
-        <v>-123.25592</v>
+        <v>49.262</v>
+      </c>
+      <c r="Q40" t="n">
+        <v>-123.25347</v>
       </c>
     </row>
     <row r="41">
@@ -3463,10 +3663,15 @@
           <t>NA</t>
         </is>
       </c>
-      <c r="O41" t="n">
+      <c r="O41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">190 Maple Hills Ave Charlottetown C1C 1N2 </t>
+        </is>
+      </c>
+      <c r="P41" t="n">
         <v>46.283501</v>
       </c>
-      <c r="P41" t="n">
+      <c r="Q41" t="n">
         <v>-63.132356</v>
       </c>
     </row>
@@ -3537,10 +3742,15 @@
           <t>NA</t>
         </is>
       </c>
-      <c r="O42" t="n">
+      <c r="O42" t="inlineStr">
+        <is>
+          <t xml:space="preserve">15 Dineen Drive Head Hall  Building Room E-45A Fredericton Canada E3B5A3 </t>
+        </is>
+      </c>
+      <c r="P42" t="n">
         <v>45.94998</v>
       </c>
-      <c r="P42" t="n">
+      <c r="Q42" t="n">
         <v>-66.64142</v>
       </c>
     </row>
@@ -3611,10 +3821,15 @@
           <t>NA</t>
         </is>
       </c>
-      <c r="O43" t="n">
+      <c r="O43" t="inlineStr">
+        <is>
+          <t xml:space="preserve">27 King's College Cir Toronto M5S 1A1 </t>
+        </is>
+      </c>
+      <c r="P43" t="n">
         <v>43.661316</v>
       </c>
-      <c r="P43" t="n">
+      <c r="Q43" t="n">
         <v>-79.396021</v>
       </c>
     </row>
@@ -3685,10 +3900,15 @@
           <t>NA</t>
         </is>
       </c>
-      <c r="O44" t="n">
+      <c r="O44" t="inlineStr">
+        <is>
+          <t>11th Hour Prototypes Bidford on Avon Warwickshire B50 4JH United Kingdom</t>
+        </is>
+      </c>
+      <c r="P44" t="n">
         <v>52.1686</v>
       </c>
-      <c r="P44" t="n">
+      <c r="Q44" t="n">
         <v>-1.8671</v>
       </c>
     </row>
@@ -3759,10 +3979,15 @@
           <t>NA</t>
         </is>
       </c>
-      <c r="O45" t="n">
+      <c r="O45" t="inlineStr">
+        <is>
+          <t>Hurst End Farm Folly Ln  Newport Pagnell  MK16 9HS Buckinghamshire</t>
+        </is>
+      </c>
+      <c r="P45" t="n">
         <v>52.09229</v>
       </c>
-      <c r="P45" t="n">
+      <c r="Q45" t="n">
         <v>-0.65006</v>
       </c>
     </row>
@@ -3833,10 +4058,15 @@
           <t>NA</t>
         </is>
       </c>
-      <c r="O46" t="n">
+      <c r="O46" t="inlineStr">
+        <is>
+          <t>Unit 1 Carlton Court Grainger Road Southend On Sea Essex  SS2 5BZ United Kingdom</t>
+        </is>
+      </c>
+      <c r="P46" t="n">
         <v>51.54365</v>
       </c>
-      <c r="P46" t="n">
+      <c r="Q46" t="n">
         <v>0.71389</v>
       </c>
     </row>
@@ -3907,10 +4137,15 @@
           <t>NA</t>
         </is>
       </c>
-      <c r="O47" t="n">
+      <c r="O47" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> North Industrial Estate 45 Drumhead Rd Chorley  PR6 0BL Lancashire</t>
+        </is>
+      </c>
+      <c r="P47" t="n">
         <v>53.61774</v>
       </c>
-      <c r="P47" t="n">
+      <c r="Q47" t="n">
         <v>-2.6052</v>
       </c>
     </row>
@@ -3981,10 +4216,15 @@
           <t>NA</t>
         </is>
       </c>
-      <c r="O48" t="n">
+      <c r="O48" t="inlineStr">
+        <is>
+          <t>SW19 City of London</t>
+        </is>
+      </c>
+      <c r="P48" t="n">
         <v>51.42351</v>
       </c>
-      <c r="P48" t="n">
+      <c r="Q48" t="n">
         <v>-0.21175</v>
       </c>
     </row>
@@ -4055,10 +4295,15 @@
           <t>NA</t>
         </is>
       </c>
-      <c r="O49" t="n">
+      <c r="O49" t="inlineStr">
+        <is>
+          <t>cb22 4nj Cambridgeshire</t>
+        </is>
+      </c>
+      <c r="P49" t="n">
         <v>52.11325</v>
       </c>
-      <c r="P49" t="n">
+      <c r="Q49" t="n">
         <v>0.15023</v>
       </c>
     </row>
@@ -4129,10 +4374,15 @@
           <t>NA</t>
         </is>
       </c>
-      <c r="O50" t="n">
+      <c r="O50" t="inlineStr">
+        <is>
+          <t>RG14 1JB Berkshire</t>
+        </is>
+      </c>
+      <c r="P50" t="n">
         <v>51.40585</v>
       </c>
-      <c r="P50" t="n">
+      <c r="Q50" t="n">
         <v>-1.32569</v>
       </c>
     </row>
@@ -4203,10 +4453,15 @@
           <t>NA</t>
         </is>
       </c>
-      <c r="O51" t="n">
+      <c r="O51" t="inlineStr">
+        <is>
+          <t xml:space="preserve">NormacotRoad Longton Stoke-On-Trent Staffordshire ST13 1PR </t>
+        </is>
+      </c>
+      <c r="P51" t="n">
         <v>52.98457</v>
       </c>
-      <c r="P51" t="n">
+      <c r="Q51" t="n">
         <v>-2.12913</v>
       </c>
     </row>
@@ -4277,10 +4532,15 @@
           <t>NA</t>
         </is>
       </c>
-      <c r="O52" t="n">
+      <c r="O52" t="inlineStr">
+        <is>
+          <t>Nasmyth Building Nasmyth Avenue East Kilbride G75 0QR UK</t>
+        </is>
+      </c>
+      <c r="P52" t="n">
         <v>55.75544</v>
       </c>
-      <c r="P52" t="n">
+      <c r="Q52" t="n">
         <v>-4.16718</v>
       </c>
     </row>
@@ -4351,10 +4611,15 @@
           <t>NA</t>
         </is>
       </c>
-      <c r="O53" t="n">
+      <c r="O53" t="inlineStr">
+        <is>
+          <t>32 Parton Road Aylesbury Bucks HP20 1NG UK</t>
+        </is>
+      </c>
+      <c r="P53" t="n">
         <v>51.81429</v>
       </c>
-      <c r="P53" t="n">
+      <c r="Q53" t="n">
         <v>-0.78452</v>
       </c>
     </row>
@@ -4425,10 +4690,15 @@
           <t>NA</t>
         </is>
       </c>
-      <c r="O54" t="n">
+      <c r="O54" t="inlineStr">
+        <is>
+          <t>Unit 3A Stafford Park 16 Telford Shropshire TF3 3BS UK</t>
+        </is>
+      </c>
+      <c r="P54" t="n">
         <v>52.67211</v>
       </c>
-      <c r="P54" t="n">
+      <c r="Q54" t="n">
         <v>-2.42632</v>
       </c>
     </row>
@@ -4499,10 +4769,15 @@
           <t>NA</t>
         </is>
       </c>
-      <c r="O55" t="n">
+      <c r="O55" t="inlineStr">
+        <is>
+          <t>Mark Road  Hemel Hempstead HP2 7UA Hertfordshire</t>
+        </is>
+      </c>
+      <c r="P55" t="n">
         <v>51.76535</v>
       </c>
-      <c r="P55" t="n">
+      <c r="Q55" t="n">
         <v>-0.44282</v>
       </c>
     </row>
@@ -4573,10 +4848,15 @@
           <t>NA</t>
         </is>
       </c>
-      <c r="O56" t="n">
+      <c r="O56" t="inlineStr">
+        <is>
+          <t>4 Acol Court Acol Road London NW6 3AE UK</t>
+        </is>
+      </c>
+      <c r="P56" t="n">
         <v>51.54211</v>
       </c>
-      <c r="P56" t="n">
+      <c r="Q56" t="n">
         <v>-0.19208</v>
       </c>
     </row>
@@ -4647,10 +4927,15 @@
           <t>NA</t>
         </is>
       </c>
-      <c r="O57" t="n">
+      <c r="O57" t="inlineStr">
+        <is>
+          <t>Units 7 &amp; 8 Suite 10 Elizabeth Industrial Estate, Juno Way London SE14 5RW UK</t>
+        </is>
+      </c>
+      <c r="P57" t="n">
         <v>51.48278</v>
       </c>
-      <c r="P57" t="n">
+      <c r="Q57" t="n">
         <v>-0.04469</v>
       </c>
     </row>
@@ -4721,10 +5006,15 @@
           <t>NA</t>
         </is>
       </c>
-      <c r="O58" t="n">
+      <c r="O58" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="P58" t="n">
         <v>54.2004</v>
       </c>
-      <c r="P58" t="n">
+      <c r="Q58" t="n">
         <v>-3.00098</v>
       </c>
     </row>
@@ -4795,10 +5085,15 @@
           <t>AS 9100D, ISO 13485:2016, EN 9100:2018</t>
         </is>
       </c>
-      <c r="O59" t="n">
+      <c r="O59" t="inlineStr">
+        <is>
+          <t>Fulton Court Wofford Way Greenham Business Park Newbury RG19 6HD Bershire</t>
+        </is>
+      </c>
+      <c r="P59" t="n">
         <v>51.37219</v>
       </c>
-      <c r="P59" t="n">
+      <c r="Q59" t="n">
         <v>-1.27741</v>
       </c>
     </row>
@@ -4869,11 +5164,16 @@
           <t>NA</t>
         </is>
       </c>
-      <c r="O60" t="n">
-        <v>50.83186</v>
+      <c r="O60" t="inlineStr">
+        <is>
+          <t xml:space="preserve">ll ll </t>
+        </is>
       </c>
       <c r="P60" t="n">
-        <v>-0.34094</v>
+        <v>50.92803</v>
+      </c>
+      <c r="Q60" t="n">
+        <v>-1.47524</v>
       </c>
     </row>
     <row r="61">
@@ -4943,10 +5243,15 @@
           <t>ISO 14001</t>
         </is>
       </c>
-      <c r="O61" t="n">
+      <c r="O61" t="inlineStr">
+        <is>
+          <t xml:space="preserve">25 Mornington Road Birmingham B66 2JE </t>
+        </is>
+      </c>
+      <c r="P61" t="n">
         <v>52.50219</v>
       </c>
-      <c r="P61" t="n">
+      <c r="Q61" t="n">
         <v>-1.96121</v>
       </c>
     </row>
@@ -5017,10 +5322,15 @@
           <t>ISO  14001, ISO 9001:2015, AS 9100</t>
         </is>
       </c>
-      <c r="O62" t="n">
+      <c r="O62" t="inlineStr">
+        <is>
+          <t>213 Torrington Avenue Tile Hill Coventry West Midlands CV4 9HN West Midlands</t>
+        </is>
+      </c>
+      <c r="P62" t="n">
         <v>52.39929</v>
       </c>
-      <c r="P62" t="n">
+      <c r="Q62" t="n">
         <v>-1.5582</v>
       </c>
     </row>
@@ -5091,10 +5401,15 @@
           <t>NA</t>
         </is>
       </c>
-      <c r="O63" t="n">
+      <c r="O63" t="inlineStr">
+        <is>
+          <t>COATES BUILDING UNIVERSITY PARK NOTTINGHAM NG7 2RD UNITED KINGDOM</t>
+        </is>
+      </c>
+      <c r="P63" t="n">
         <v>52.99289</v>
       </c>
-      <c r="P63" t="n">
+      <c r="Q63" t="n">
         <v>-1.28651</v>
       </c>
     </row>
@@ -5165,10 +5480,15 @@
           <t>NA</t>
         </is>
       </c>
-      <c r="O64" t="n">
+      <c r="O64" t="inlineStr">
+        <is>
+          <t>S60 5WG South Yorkshire</t>
+        </is>
+      </c>
+      <c r="P64" t="n">
         <v>53.38246</v>
       </c>
-      <c r="P64" t="n">
+      <c r="Q64" t="n">
         <v>-1.3743</v>
       </c>
     </row>
@@ -5239,10 +5559,15 @@
           <t>NA</t>
         </is>
       </c>
-      <c r="O65" t="n">
+      <c r="O65" t="inlineStr">
+        <is>
+          <t>UNIT N EUROPA HOUSE SHEFFIELD AIRPORT BUSINESS PARK SHEFFIELD S9 1XU ENGLAND</t>
+        </is>
+      </c>
+      <c r="P65" t="n">
         <v>53.32424</v>
       </c>
-      <c r="P65" t="n">
+      <c r="Q65" t="n">
         <v>-1.34236</v>
       </c>
     </row>
@@ -5313,10 +5638,15 @@
           <t>NA</t>
         </is>
       </c>
-      <c r="O66" t="n">
+      <c r="O66" t="inlineStr">
+        <is>
+          <t xml:space="preserve">iHub - Infinity Park Innovation Way Derby Derbyshire DE24 9FU </t>
+        </is>
+      </c>
+      <c r="P66" t="n">
         <v>52.87749</v>
       </c>
-      <c r="P66" t="n">
+      <c r="Q66" t="n">
         <v>-1.46467</v>
       </c>
     </row>
@@ -5387,11 +5717,16 @@
           <t>NA</t>
         </is>
       </c>
-      <c r="O67" t="n">
-        <v>51.61136</v>
+      <c r="O67" t="inlineStr">
+        <is>
+          <t>EC2Y 9DT City of London</t>
+        </is>
       </c>
       <c r="P67" t="n">
-        <v>-0.06575</v>
+        <v>51.6117</v>
+      </c>
+      <c r="Q67" t="n">
+        <v>-0.06548</v>
       </c>
     </row>
     <row r="68">
@@ -5461,10 +5796,15 @@
           <t>PRINCE2</t>
         </is>
       </c>
-      <c r="O68" t="n">
+      <c r="O68" t="inlineStr">
+        <is>
+          <t>37 Royal Avenue Calcot Reading Berkshire RG31 4UR UK</t>
+        </is>
+      </c>
+      <c r="P68" t="n">
         <v>51.44158</v>
       </c>
-      <c r="P68" t="n">
+      <c r="Q68" t="n">
         <v>-1.05547</v>
       </c>
     </row>
@@ -5535,10 +5875,15 @@
           <t>NA</t>
         </is>
       </c>
-      <c r="O69" t="n">
+      <c r="O69" t="inlineStr">
+        <is>
+          <t>PA4 9LJ Renfrewshire</t>
+        </is>
+      </c>
+      <c r="P69" t="n">
         <v>55.89246</v>
       </c>
-      <c r="P69" t="n">
+      <c r="Q69" t="n">
         <v>-4.43584</v>
       </c>
     </row>
@@ -5609,10 +5954,15 @@
           <t>NA</t>
         </is>
       </c>
-      <c r="O70" t="n">
+      <c r="O70" t="inlineStr">
+        <is>
+          <t>SK5 7ER Greater Manchester</t>
+        </is>
+      </c>
+      <c r="P70" t="n">
         <v>53.44929</v>
       </c>
-      <c r="P70" t="n">
+      <c r="Q70" t="n">
         <v>-2.30205</v>
       </c>
     </row>
@@ -5683,10 +6033,15 @@
           <t>NA</t>
         </is>
       </c>
-      <c r="O71" t="n">
+      <c r="O71" t="inlineStr">
+        <is>
+          <t>MK46 5EQ Buckinghamshire</t>
+        </is>
+      </c>
+      <c r="P71" t="n">
         <v>52.16117</v>
       </c>
-      <c r="P71" t="n">
+      <c r="Q71" t="n">
         <v>-0.70506</v>
       </c>
     </row>
@@ -5757,10 +6112,15 @@
           <t>NA</t>
         </is>
       </c>
-      <c r="O72" t="n">
+      <c r="O72" t="inlineStr">
+        <is>
+          <t>OX2 6NA Oxfordshire</t>
+        </is>
+      </c>
+      <c r="P72" t="n">
         <v>51.76369</v>
       </c>
-      <c r="P72" t="n">
+      <c r="Q72" t="n">
         <v>-1.26217</v>
       </c>
     </row>
@@ -5831,10 +6191,15 @@
           <t>NA</t>
         </is>
       </c>
-      <c r="O73" t="n">
+      <c r="O73" t="inlineStr">
+        <is>
+          <t>B60 3DX Worcestershire</t>
+        </is>
+      </c>
+      <c r="P73" t="n">
         <v>52.314469</v>
       </c>
-      <c r="P73" t="n">
+      <c r="Q73" t="n">
         <v>-2.063804</v>
       </c>
     </row>
@@ -5905,10 +6270,15 @@
           <t>NA</t>
         </is>
       </c>
-      <c r="O74" t="n">
+      <c r="O74" t="inlineStr">
+        <is>
+          <t>crossgate road park farm  industrial estate Redditch Worecestershire B987TD United KIngdom</t>
+        </is>
+      </c>
+      <c r="P74" t="n">
         <v>52.28798</v>
       </c>
-      <c r="P74" t="n">
+      <c r="Q74" t="n">
         <v>-1.91218</v>
       </c>
     </row>
@@ -5979,10 +6349,15 @@
           <t>NA</t>
         </is>
       </c>
-      <c r="O75" t="n">
+      <c r="O75" t="inlineStr">
+        <is>
+          <t>c/o Outfit Unit 5B Chester Retail Park Sealand Road Chester CH1 4RY UK</t>
+        </is>
+      </c>
+      <c r="P75" t="n">
         <v>53.1956</v>
       </c>
-      <c r="P75" t="n">
+      <c r="Q75" t="n">
         <v>-2.92746</v>
       </c>
     </row>
@@ -6053,10 +6428,15 @@
           <t>ISO 9001, ISO 14001</t>
         </is>
       </c>
-      <c r="O76" t="n">
+      <c r="O76" t="inlineStr">
+        <is>
+          <t>2000 Manton Ln Bedford MK41 7PF UK</t>
+        </is>
+      </c>
+      <c r="P76" t="n">
         <v>52.15245</v>
       </c>
-      <c r="P76" t="n">
+      <c r="Q76" t="n">
         <v>-0.47735</v>
       </c>
     </row>
@@ -6127,10 +6507,15 @@
           <t>NA</t>
         </is>
       </c>
-      <c r="O77" t="n">
+      <c r="O77" t="inlineStr">
+        <is>
+          <t>SK7 2BE Greater Manchester</t>
+        </is>
+      </c>
+      <c r="P77" t="n">
         <v>53.35865</v>
       </c>
-      <c r="P77" t="n">
+      <c r="Q77" t="n">
         <v>-2.16754</v>
       </c>
     </row>
@@ -6201,10 +6586,15 @@
           <t>NA</t>
         </is>
       </c>
-      <c r="O78" t="n">
+      <c r="O78" t="inlineStr">
+        <is>
+          <t>B15 2TT West Midlands</t>
+        </is>
+      </c>
+      <c r="P78" t="n">
         <v>52.45017</v>
       </c>
-      <c r="P78" t="n">
+      <c r="Q78" t="n">
         <v>-1.92915</v>
       </c>
     </row>
@@ -6275,10 +6665,15 @@
           <t>NA</t>
         </is>
       </c>
-      <c r="O79" t="n">
+      <c r="O79" t="inlineStr">
+        <is>
+          <t xml:space="preserve">FactoryoftheFuture AdvancedManufacturingPark WallisWayCatcliffeRotherhamS605TZ S60 5TZ </t>
+        </is>
+      </c>
+      <c r="P79" t="n">
         <v>53.38767</v>
       </c>
-      <c r="P79" t="n">
+      <c r="Q79" t="n">
         <v>-1.3766</v>
       </c>
     </row>
@@ -6349,10 +6744,15 @@
           <t>NA</t>
         </is>
       </c>
-      <c r="O80" t="n">
+      <c r="O80" t="inlineStr">
+        <is>
+          <t>Ansty Business Park Coventry United Kingdom</t>
+        </is>
+      </c>
+      <c r="P80" t="n">
         <v>52.42728</v>
       </c>
-      <c r="P80" t="n">
+      <c r="Q80" t="n">
         <v>-1.40798</v>
       </c>
     </row>
@@ -6423,10 +6823,15 @@
           <t>NA</t>
         </is>
       </c>
-      <c r="O81" t="n">
+      <c r="O81" t="inlineStr">
+        <is>
+          <t>DD9 6DY Angus</t>
+        </is>
+      </c>
+      <c r="P81" t="n">
         <v>56.72926</v>
       </c>
-      <c r="P81" t="n">
+      <c r="Q81" t="n">
         <v>-2.65413</v>
       </c>
     </row>
@@ -6497,10 +6902,15 @@
           <t>NA</t>
         </is>
       </c>
-      <c r="O82" t="n">
+      <c r="O82" t="inlineStr">
+        <is>
+          <t>S9 1XH South Yorkshire</t>
+        </is>
+      </c>
+      <c r="P82" t="n">
         <v>53.35257</v>
       </c>
-      <c r="P82" t="n">
+      <c r="Q82" t="n">
         <v>-1.26093</v>
       </c>
     </row>
@@ -6571,10 +6981,15 @@
           <t>NA</t>
         </is>
       </c>
-      <c r="O83" t="n">
+      <c r="O83" t="inlineStr">
+        <is>
+          <t>ADVANCED PIPE INSPECTION UK LTD Friar Gate Studios Ford Street Derby DE1 1EE United Kingdom</t>
+        </is>
+      </c>
+      <c r="P83" t="n">
         <v>52.92461</v>
       </c>
-      <c r="P83" t="n">
+      <c r="Q83" t="n">
         <v>-1.48392</v>
       </c>
     </row>
@@ -6645,11 +7060,16 @@
           <t>NA</t>
         </is>
       </c>
-      <c r="O84" t="n">
-        <v>52.25093</v>
+      <c r="O84" t="inlineStr">
+        <is>
+          <t>CV34 6RH Warwickshire</t>
+        </is>
       </c>
       <c r="P84" t="n">
-        <v>-1.54502</v>
+        <v>52.24485</v>
+      </c>
+      <c r="Q84" t="n">
+        <v>-1.54458</v>
       </c>
     </row>
     <row r="85">
@@ -6719,10 +7139,15 @@
           <t>NA</t>
         </is>
       </c>
-      <c r="O85" t="n">
+      <c r="O85" t="inlineStr">
+        <is>
+          <t>ROYSTON HOUSE 267 CRANMORE BOULEVARD SHIRLEY SOLIHULL WEST MIDLANDS B90 4QT UNITED KINGDOM</t>
+        </is>
+      </c>
+      <c r="P85" t="n">
         <v>52.39617</v>
       </c>
-      <c r="P85" t="n">
+      <c r="Q85" t="n">
         <v>-1.81206</v>
       </c>
     </row>
@@ -6793,10 +7218,15 @@
           <t>NA</t>
         </is>
       </c>
-      <c r="O86" t="n">
+      <c r="O86" t="inlineStr">
+        <is>
+          <t>Unit 75 Greenfield Business Centre Greenfield Holywell Flintshire CH8 7GR UK</t>
+        </is>
+      </c>
+      <c r="P86" t="n">
         <v>53.28438</v>
       </c>
-      <c r="P86" t="n">
+      <c r="Q86" t="n">
         <v>-3.21569</v>
       </c>
     </row>
@@ -6867,10 +7297,15 @@
           <t>ISO 9001, ISO 14001</t>
         </is>
       </c>
-      <c r="O87" t="n">
+      <c r="O87" t="inlineStr">
+        <is>
+          <t>371 Coleford Road Sheffield S9 5NF United Kingdom</t>
+        </is>
+      </c>
+      <c r="P87" t="n">
         <v>53.38853</v>
       </c>
-      <c r="P87" t="n">
+      <c r="Q87" t="n">
         <v>-1.40124</v>
       </c>
     </row>
@@ -6941,10 +7376,15 @@
           <t>NA</t>
         </is>
       </c>
-      <c r="O88" t="n">
+      <c r="O88" t="inlineStr">
+        <is>
+          <t>B10 0HJ West Midlands</t>
+        </is>
+      </c>
+      <c r="P88" t="n">
         <v>52.46522</v>
       </c>
-      <c r="P88" t="n">
+      <c r="Q88" t="n">
         <v>-1.84409</v>
       </c>
     </row>
@@ -7015,10 +7455,15 @@
           <t>NA</t>
         </is>
       </c>
-      <c r="O89" t="n">
+      <c r="O89" t="inlineStr">
+        <is>
+          <t>E3 3TZ City of London</t>
+        </is>
+      </c>
+      <c r="P89" t="n">
         <v>51.52077</v>
       </c>
-      <c r="P89" t="n">
+      <c r="Q89" t="n">
         <v>-0.01678</v>
       </c>
     </row>
@@ -7089,10 +7534,15 @@
           <t>NA</t>
         </is>
       </c>
-      <c r="O90" t="n">
+      <c r="O90" t="inlineStr">
+        <is>
+          <t>The Priestley Centre Surrey Research Park,10 Priestley Road Guildford Surrey GU2 7XY UK</t>
+        </is>
+      </c>
+      <c r="P90" t="n">
         <v>51.23893</v>
       </c>
-      <c r="P90" t="n">
+      <c r="Q90" t="n">
         <v>-0.61332</v>
       </c>
     </row>
@@ -7163,10 +7613,15 @@
           <t>ISO 9001:2015, ISO 14001, OHSAS 18001:2007, IATF 16949:2016, ILO-OSH 2001, AS9100, AIAG CQI-9:2020, Nadcap, MedAccred</t>
         </is>
       </c>
-      <c r="O91" t="n">
+      <c r="O91" t="inlineStr">
+        <is>
+          <t>Springwood Court,Springwood Close Tytherington Business Park Macclesfield Cheshire SK10 2XF UK</t>
+        </is>
+      </c>
+      <c r="P91" t="n">
         <v>53.28255</v>
       </c>
-      <c r="P91" t="n">
+      <c r="Q91" t="n">
         <v>-2.12204</v>
       </c>
     </row>
@@ -7237,10 +7692,15 @@
           <t>NA</t>
         </is>
       </c>
-      <c r="O92" t="n">
+      <c r="O92" t="inlineStr">
+        <is>
+          <t>CH2 3AD Cheshire</t>
+        </is>
+      </c>
+      <c r="P92" t="n">
         <v>53.23668</v>
       </c>
-      <c r="P92" t="n">
+      <c r="Q92" t="n">
         <v>-0.53961</v>
       </c>
     </row>
@@ -7311,10 +7771,15 @@
           <t>NA</t>
         </is>
       </c>
-      <c r="O93" t="n">
+      <c r="O93" t="inlineStr">
+        <is>
+          <t>The Building Centre 26 Store Street London WC1E 7BT UK</t>
+        </is>
+      </c>
+      <c r="P93" t="n">
         <v>51.5471</v>
       </c>
-      <c r="P93" t="n">
+      <c r="Q93" t="n">
         <v>0.00195</v>
       </c>
     </row>
@@ -7385,10 +7850,15 @@
           <t>NA</t>
         </is>
       </c>
-      <c r="O94" t="n">
+      <c r="O94" t="inlineStr">
+        <is>
+          <t>PE28 0LP Cambridgeshire</t>
+        </is>
+      </c>
+      <c r="P94" t="n">
         <v>52.31109</v>
       </c>
-      <c r="P94" t="n">
+      <c r="Q94" t="n">
         <v>-0.37961</v>
       </c>
     </row>
@@ -7459,10 +7929,15 @@
           <t>NA</t>
         </is>
       </c>
-      <c r="O95" t="n">
+      <c r="O95" t="inlineStr">
+        <is>
+          <t>CB2 1TN Cambridgeshire</t>
+        </is>
+      </c>
+      <c r="P95" t="n">
         <v>52.20581</v>
       </c>
-      <c r="P95" t="n">
+      <c r="Q95" t="n">
         <v>0.11632</v>
       </c>
     </row>
@@ -7533,10 +8008,15 @@
           <t>NA</t>
         </is>
       </c>
-      <c r="O96" t="n">
+      <c r="O96" t="inlineStr">
+        <is>
+          <t>Woodhatch Reigate Surrey RH2 8BF UK</t>
+        </is>
+      </c>
+      <c r="P96" t="n">
         <v>51.21924</v>
       </c>
-      <c r="P96" t="n">
+      <c r="Q96" t="n">
         <v>-0.18293</v>
       </c>
     </row>
@@ -7607,10 +8087,15 @@
           <t>NA</t>
         </is>
       </c>
-      <c r="O97" t="n">
+      <c r="O97" t="inlineStr">
+        <is>
+          <t>Parsons Lane Sheffield S33 6RB United Kinfdom</t>
+        </is>
+      </c>
+      <c r="P97" t="n">
         <v>53.34673</v>
       </c>
-      <c r="P97" t="n">
+      <c r="Q97" t="n">
         <v>-1.72293</v>
       </c>
     </row>
@@ -7681,10 +8166,15 @@
           <t>NA</t>
         </is>
       </c>
-      <c r="O98" t="n">
+      <c r="O98" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Unit9WildmoorMill MillLane Wildmoor Bromsgrove, Worcestershire B61 0BX </t>
+        </is>
+      </c>
+      <c r="P98" t="n">
         <v>52.37448</v>
       </c>
-      <c r="P98" t="n">
+      <c r="Q98" t="n">
         <v>-2.06321</v>
       </c>
     </row>
@@ -7755,10 +8245,15 @@
           <t>NA</t>
         </is>
       </c>
-      <c r="O99" t="n">
+      <c r="O99" t="inlineStr">
+        <is>
+          <t>City, University of London Northampton Square  Clerkenwell London  EC1V 0HB United Kingdom</t>
+        </is>
+      </c>
+      <c r="P99" t="n">
         <v>51.52744</v>
       </c>
-      <c r="P99" t="n">
+      <c r="Q99" t="n">
         <v>-0.10283</v>
       </c>
     </row>
@@ -7829,10 +8324,15 @@
           <t>NA</t>
         </is>
       </c>
-      <c r="O100" t="n">
+      <c r="O100" t="inlineStr">
+        <is>
+          <t xml:space="preserve">123 abc road SW12 2BG </t>
+        </is>
+      </c>
+      <c r="P100" t="n">
         <v>51.46983</v>
       </c>
-      <c r="P100" t="n">
+      <c r="Q100" t="n">
         <v>-0.06014</v>
       </c>
     </row>
@@ -7903,10 +8403,15 @@
           <t>NA</t>
         </is>
       </c>
-      <c r="O101" t="n">
+      <c r="O101" t="inlineStr">
+        <is>
+          <t>LE11 5GW Leicestershire</t>
+        </is>
+      </c>
+      <c r="P101" t="n">
         <v>54.57527</v>
       </c>
-      <c r="P101" t="n">
+      <c r="Q101" t="n">
         <v>-1.10531</v>
       </c>
     </row>
@@ -7977,10 +8482,15 @@
           <t>ISO 17025:2017</t>
         </is>
       </c>
-      <c r="O102" t="n">
+      <c r="O102" t="inlineStr">
+        <is>
+          <t xml:space="preserve">College Road Cranfield MK43 0AL </t>
+        </is>
+      </c>
+      <c r="P102" t="n">
         <v>52.07504</v>
       </c>
-      <c r="P102" t="n">
+      <c r="Q102" t="n">
         <v>-0.62752</v>
       </c>
     </row>
@@ -8051,10 +8561,15 @@
           <t>NA</t>
         </is>
       </c>
-      <c r="O103" t="n">
+      <c r="O103" t="inlineStr">
+        <is>
+          <t xml:space="preserve">520EskdaleRoadWinnershTriangleWokinghamBerkshireRG415TU RG41 5TU </t>
+        </is>
+      </c>
+      <c r="P103" t="n">
         <v>51.43859</v>
       </c>
-      <c r="P103" t="n">
+      <c r="Q103" t="n">
         <v>-0.88385</v>
       </c>
     </row>
@@ -8125,10 +8640,15 @@
           <t>NA</t>
         </is>
       </c>
-      <c r="O104" t="n">
+      <c r="O104" t="inlineStr">
+        <is>
+          <t>Unit 20 Chorley Central Business Park Chorley PR6 0LP United Kingdom</t>
+        </is>
+      </c>
+      <c r="P104" t="n">
         <v>53.66682</v>
       </c>
-      <c r="P104" t="n">
+      <c r="Q104" t="n">
         <v>-2.63386</v>
       </c>
     </row>
@@ -8199,10 +8719,15 @@
           <t>NA</t>
         </is>
       </c>
-      <c r="O105" t="n">
+      <c r="O105" t="inlineStr">
+        <is>
+          <t>WA3 6BL Greater Manchester</t>
+        </is>
+      </c>
+      <c r="P105" t="n">
         <v>53.42702</v>
       </c>
-      <c r="P105" t="n">
+      <c r="Q105" t="n">
         <v>-2.51654</v>
       </c>
     </row>
@@ -8273,11 +8798,16 @@
           <t>NA</t>
         </is>
       </c>
-      <c r="O106" t="n">
-        <v>51.54406</v>
+      <c r="O106" t="inlineStr">
+        <is>
+          <t>61-63 Rochester Place London NW1 9JU UK</t>
+        </is>
       </c>
       <c r="P106" t="n">
-        <v>-0.13905</v>
+        <v>51.54335</v>
+      </c>
+      <c r="Q106" t="n">
+        <v>-0.13776</v>
       </c>
     </row>
     <row r="107">
@@ -8347,10 +8877,15 @@
           <t>NA</t>
         </is>
       </c>
-      <c r="O107" t="n">
+      <c r="O107" t="inlineStr">
+        <is>
+          <t>CB5 8UZ Cambridgeshire</t>
+        </is>
+      </c>
+      <c r="P107" t="n">
         <v>52.20648</v>
       </c>
-      <c r="P107" t="n">
+      <c r="Q107" t="n">
         <v>0.16562</v>
       </c>
     </row>
@@ -8421,10 +8956,15 @@
           <t>NA</t>
         </is>
       </c>
-      <c r="O108" t="n">
+      <c r="O108" t="inlineStr">
+        <is>
+          <t>Armytage Road Armytage Road West Yorkshire HD6 1QF UK</t>
+        </is>
+      </c>
+      <c r="P108" t="n">
         <v>53.70037</v>
       </c>
-      <c r="P108" t="n">
+      <c r="Q108" t="n">
         <v>-1.77319</v>
       </c>
     </row>
@@ -8495,10 +9035,15 @@
           <t>NA</t>
         </is>
       </c>
-      <c r="O109" t="n">
+      <c r="O109" t="inlineStr">
+        <is>
+          <t>CV3 4PE West Midlands</t>
+        </is>
+      </c>
+      <c r="P109" t="n">
         <v>52.36668</v>
       </c>
-      <c r="P109" t="n">
+      <c r="Q109" t="n">
         <v>-1.46644</v>
       </c>
     </row>
@@ -8569,10 +9114,15 @@
           <t>NA</t>
         </is>
       </c>
-      <c r="O110" t="n">
+      <c r="O110" t="inlineStr">
+        <is>
+          <t>42 Basepoint Business Centre Harts Farm Way Havant Hampshire PO9 1HS UK</t>
+        </is>
+      </c>
+      <c r="P110" t="n">
         <v>50.84685</v>
       </c>
-      <c r="P110" t="n">
+      <c r="Q110" t="n">
         <v>-1.00076</v>
       </c>
     </row>
@@ -8643,10 +9193,15 @@
           <t>NA</t>
         </is>
       </c>
-      <c r="O111" t="n">
+      <c r="O111" t="inlineStr">
+        <is>
+          <t>Workspace House 28-29 Maxwell Rd Peterborough PE2 7JE UK</t>
+        </is>
+      </c>
+      <c r="P111" t="n">
         <v>52.56001</v>
       </c>
-      <c r="P111" t="n">
+      <c r="Q111" t="n">
         <v>-0.26875</v>
       </c>
     </row>
@@ -8717,10 +9272,15 @@
           <t>NA</t>
         </is>
       </c>
-      <c r="O112" t="n">
+      <c r="O112" t="inlineStr">
+        <is>
+          <t>Unit 56 Monument Business Park Chalgrove Oxfordshire OX44 7RW UK</t>
+        </is>
+      </c>
+      <c r="P112" t="n">
         <v>51.66558</v>
       </c>
-      <c r="P112" t="n">
+      <c r="Q112" t="n">
         <v>-1.07373</v>
       </c>
     </row>
@@ -8791,10 +9351,15 @@
           <t>NA</t>
         </is>
       </c>
-      <c r="O113" t="n">
+      <c r="O113" t="inlineStr">
+        <is>
+          <t>CV4 7BB West Midlands</t>
+        </is>
+      </c>
+      <c r="P113" t="n">
         <v>52.39264</v>
       </c>
-      <c r="P113" t="n">
+      <c r="Q113" t="n">
         <v>-1.55068</v>
       </c>
     </row>
@@ -8865,10 +9430,15 @@
           <t>AS/EN 9100, ISO 9001</t>
         </is>
       </c>
-      <c r="O114" t="n">
+      <c r="O114" t="inlineStr">
+        <is>
+          <t>NE6 1AS Tyne and Wear</t>
+        </is>
+      </c>
+      <c r="P114" t="n">
         <v>54.9694</v>
       </c>
-      <c r="P114" t="n">
+      <c r="Q114" t="n">
         <v>-1.58384</v>
       </c>
     </row>
@@ -8939,10 +9509,15 @@
           <t>NA</t>
         </is>
       </c>
-      <c r="O115" t="n">
+      <c r="O115" t="inlineStr">
+        <is>
+          <t>TF2 9TX Shropshire</t>
+        </is>
+      </c>
+      <c r="P115" t="n">
         <v>51.51491</v>
       </c>
-      <c r="P115" t="n">
+      <c r="Q115" t="n">
         <v>-0.07907</v>
       </c>
     </row>
@@ -9013,10 +9588,15 @@
           <t>NA</t>
         </is>
       </c>
-      <c r="O116" t="n">
+      <c r="O116" t="inlineStr">
+        <is>
+          <t>AB12 3LY Aberdeen City</t>
+        </is>
+      </c>
+      <c r="P116" t="n">
         <v>57.11489</v>
       </c>
-      <c r="P116" t="n">
+      <c r="Q116" t="n">
         <v>-2.0815</v>
       </c>
     </row>
@@ -9087,10 +9667,15 @@
           <t>NA</t>
         </is>
       </c>
-      <c r="O117" t="n">
+      <c r="O117" t="inlineStr">
+        <is>
+          <t>Unit 19, Laker Road Rochester Kent ME1 3QX United KIngdom</t>
+        </is>
+      </c>
+      <c r="P117" t="n">
         <v>51.35405</v>
       </c>
-      <c r="P117" t="n">
+      <c r="Q117" t="n">
         <v>0.50029</v>
       </c>
     </row>
@@ -9161,10 +9746,15 @@
           <t>NA</t>
         </is>
       </c>
-      <c r="O118" t="n">
+      <c r="O118" t="inlineStr">
+        <is>
+          <t>B63 2RH West Midlands</t>
+        </is>
+      </c>
+      <c r="P118" t="n">
         <v>52.45481</v>
       </c>
-      <c r="P118" t="n">
+      <c r="Q118" t="n">
         <v>-2.08966</v>
       </c>
     </row>
@@ -9235,10 +9825,15 @@
           <t>ISO 9001:2015</t>
         </is>
       </c>
-      <c r="O119" t="n">
+      <c r="O119" t="inlineStr">
+        <is>
+          <t>KA9 2TU South Ayrshire</t>
+        </is>
+      </c>
+      <c r="P119" t="n">
         <v>55.51716</v>
       </c>
-      <c r="P119" t="n">
+      <c r="Q119" t="n">
         <v>-4.60826</v>
       </c>
     </row>
@@ -9309,10 +9904,15 @@
           <t>NA</t>
         </is>
       </c>
-      <c r="O120" t="n">
+      <c r="O120" t="inlineStr">
+        <is>
+          <t xml:space="preserve">The Homestead Watling St Towcester Northants NN12 6LH </t>
+        </is>
+      </c>
+      <c r="P120" t="n">
         <v>52.12899</v>
       </c>
-      <c r="P120" t="n">
+      <c r="Q120" t="n">
         <v>-0.98444</v>
       </c>
     </row>
@@ -9383,11 +9983,16 @@
           <t>ISO 9001, ISO 14001</t>
         </is>
       </c>
-      <c r="O121" t="n">
-        <v>51.39521</v>
+      <c r="O121" t="inlineStr">
+        <is>
+          <t>Chaffinch Business Park Croydon Road Beckenham Kent BR3 4DW UK</t>
+        </is>
       </c>
       <c r="P121" t="n">
-        <v>-0.04835</v>
+        <v>51.39801</v>
+      </c>
+      <c r="Q121" t="n">
+        <v>-0.04699</v>
       </c>
     </row>
     <row r="122">
@@ -9457,10 +10062,15 @@
           <t>AS 9100, UKAS 005</t>
         </is>
       </c>
-      <c r="O122" t="n">
+      <c r="O122" t="inlineStr">
+        <is>
+          <t xml:space="preserve">34SabreClose GreenFarm Quedgeley Gloucester, Gloucestershire GL2 4NZ </t>
+        </is>
+      </c>
+      <c r="P122" t="n">
         <v>51.80695</v>
       </c>
-      <c r="P122" t="n">
+      <c r="Q122" t="n">
         <v>-2.27328</v>
       </c>
     </row>
@@ -9531,10 +10141,15 @@
           <t>NA</t>
         </is>
       </c>
-      <c r="O123" t="n">
+      <c r="O123" t="inlineStr">
+        <is>
+          <t>MK8 0JP Buckinghamshire</t>
+        </is>
+      </c>
+      <c r="P123" t="n">
         <v>52.02605</v>
       </c>
-      <c r="P123" t="n">
+      <c r="Q123" t="n">
         <v>-0.80054</v>
       </c>
     </row>
@@ -9605,10 +10220,15 @@
           <t>NA</t>
         </is>
       </c>
-      <c r="O124" t="n">
+      <c r="O124" t="inlineStr">
+        <is>
+          <t>29-39 Brunswick Square Bloomsbury London WC1N 1AX UK</t>
+        </is>
+      </c>
+      <c r="P124" t="n">
         <v>51.52421</v>
       </c>
-      <c r="P124" t="n">
+      <c r="Q124" t="n">
         <v>-0.12256</v>
       </c>
     </row>
@@ -9679,10 +10299,15 @@
           <t>NA</t>
         </is>
       </c>
-      <c r="O125" t="n">
+      <c r="O125" t="inlineStr">
+        <is>
+          <t xml:space="preserve">CV7 9DR </t>
+        </is>
+      </c>
+      <c r="P125" t="n">
         <v>52.43239</v>
       </c>
-      <c r="P125" t="n">
+      <c r="Q125" t="n">
         <v>-1.40588</v>
       </c>
     </row>
@@ -9753,10 +10378,15 @@
           <t>ISO 9001, UKAS</t>
         </is>
       </c>
-      <c r="O126" t="n">
+      <c r="O126" t="inlineStr">
+        <is>
+          <t>RG24 7NG Hampshire</t>
+        </is>
+      </c>
+      <c r="P126" t="n">
         <v>51.27546</v>
       </c>
-      <c r="P126" t="n">
+      <c r="Q126" t="n">
         <v>-1.0531</v>
       </c>
     </row>
@@ -9827,10 +10457,15 @@
           <t>NA</t>
         </is>
       </c>
-      <c r="O127" t="n">
+      <c r="O127" t="inlineStr">
+        <is>
+          <t>Suite 1B, Leeds Innovation Centre 103 Clarendon Road Leeds West Yorkshire LS2 9DF UK</t>
+        </is>
+      </c>
+      <c r="P127" t="n">
         <v>53.8061</v>
       </c>
-      <c r="P127" t="n">
+      <c r="Q127" t="n">
         <v>-1.5604</v>
       </c>
     </row>
@@ -9901,10 +10536,15 @@
           <t>ISO 9001:2015, ISO 14001:2015</t>
         </is>
       </c>
-      <c r="O128" t="n">
+      <c r="O128" t="inlineStr">
+        <is>
+          <t>LE11 5RG Leicestershire</t>
+        </is>
+      </c>
+      <c r="P128" t="n">
         <v>52.78461</v>
       </c>
-      <c r="P128" t="n">
+      <c r="Q128" t="n">
         <v>-1.22527</v>
       </c>
     </row>
@@ -9975,10 +10615,15 @@
           <t>Certified sustainable sea food MSC</t>
         </is>
       </c>
-      <c r="O129" t="n">
+      <c r="O129" t="inlineStr">
+        <is>
+          <t>TR18 5HW Cornwall</t>
+        </is>
+      </c>
+      <c r="P129" t="n">
         <v>50.10253</v>
       </c>
-      <c r="P129" t="n">
+      <c r="Q129" t="n">
         <v>-5.54831</v>
       </c>
     </row>
@@ -10049,10 +10694,15 @@
           <t>NA</t>
         </is>
       </c>
-      <c r="O130" t="n">
+      <c r="O130" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Innovation Centre Keckwick Lane Daresbury Cheshire WA4 4FS United Kingdom</t>
+        </is>
+      </c>
+      <c r="P130" t="n">
         <v>53.34475</v>
       </c>
-      <c r="P130" t="n">
+      <c r="Q130" t="n">
         <v>-2.63934</v>
       </c>
     </row>
@@ -10123,10 +10773,15 @@
           <t>NA</t>
         </is>
       </c>
-      <c r="O131" t="n">
+      <c r="O131" t="inlineStr">
+        <is>
+          <t>117 Codicote Road Welwyn Hertfordshire AL6 9TY UK</t>
+        </is>
+      </c>
+      <c r="P131" t="n">
         <v>51.84573</v>
       </c>
-      <c r="P131" t="n">
+      <c r="Q131" t="n">
         <v>-0.22934</v>
       </c>
     </row>
@@ -10197,10 +10852,15 @@
           <t>NA</t>
         </is>
       </c>
-      <c r="O132" t="n">
+      <c r="O132" t="inlineStr">
+        <is>
+          <t>181 Harrison Hughes Building School Of Engineering Merseyside L69 3GH UK</t>
+        </is>
+      </c>
+      <c r="P132" t="n">
         <v>39.390897</v>
       </c>
-      <c r="P132" t="n">
+      <c r="Q132" t="n">
         <v>-99.066067</v>
       </c>
     </row>
@@ -10271,10 +10931,15 @@
           <t>NA</t>
         </is>
       </c>
-      <c r="O133" t="n">
+      <c r="O133" t="inlineStr">
+        <is>
+          <t>CV34 5DA Warwickshire</t>
+        </is>
+      </c>
+      <c r="P133" t="n">
         <v>52.29045</v>
       </c>
-      <c r="P133" t="n">
+      <c r="Q133" t="n">
         <v>-1.5958</v>
       </c>
     </row>
@@ -10345,10 +11010,15 @@
           <t>NA</t>
         </is>
       </c>
-      <c r="O134" t="n">
+      <c r="O134" t="inlineStr">
+        <is>
+          <t>CV4 8AF West Midlands</t>
+        </is>
+      </c>
+      <c r="P134" t="n">
         <v>52.39513</v>
       </c>
-      <c r="P134" t="n">
+      <c r="Q134" t="n">
         <v>-1.59554</v>
       </c>
     </row>
@@ -10419,10 +11089,15 @@
           <t>NA</t>
         </is>
       </c>
-      <c r="O135" t="n">
+      <c r="O135" t="inlineStr">
+        <is>
+          <t>CA1 2SQ Cumbria</t>
+        </is>
+      </c>
+      <c r="P135" t="n">
         <v>54.87928</v>
       </c>
-      <c r="P135" t="n">
+      <c r="Q135" t="n">
         <v>-2.91528</v>
       </c>
     </row>
@@ -10493,10 +11168,15 @@
           <t>NA</t>
         </is>
       </c>
-      <c r="O136" t="n">
+      <c r="O136" t="inlineStr">
+        <is>
+          <t>G12 8QQ Glasgow City</t>
+        </is>
+      </c>
+      <c r="P136" t="n">
         <v>55.87259</v>
       </c>
-      <c r="P136" t="n">
+      <c r="Q136" t="n">
         <v>-4.28994</v>
       </c>
     </row>
@@ -10567,10 +11247,15 @@
           <t>ISO 9001:2015</t>
         </is>
       </c>
-      <c r="O137" t="n">
+      <c r="O137" t="inlineStr">
+        <is>
+          <t>College Business Park Kearsley Road Ripon North Yorkshire HG4 2RN UK</t>
+        </is>
+      </c>
+      <c r="P137" t="n">
         <v>54.1437</v>
       </c>
-      <c r="P137" t="n">
+      <c r="Q137" t="n">
         <v>-1.5297</v>
       </c>
     </row>
@@ -10641,10 +11326,15 @@
           <t>NA</t>
         </is>
       </c>
-      <c r="O138" t="n">
+      <c r="O138" t="inlineStr">
+        <is>
+          <t xml:space="preserve">WV15 5HP </t>
+        </is>
+      </c>
+      <c r="P138" t="n">
         <v>52.52706</v>
       </c>
-      <c r="P138" t="n">
+      <c r="Q138" t="n">
         <v>-2.37921</v>
       </c>
     </row>
@@ -10715,10 +11405,15 @@
           <t>ISO 9001:2015, ISO 45001</t>
         </is>
       </c>
-      <c r="O139" t="n">
+      <c r="O139" t="inlineStr">
+        <is>
+          <t>Snaygill Industrial Estate Keighley Road Skipton North Yorkshire BD23 2QR UK</t>
+        </is>
+      </c>
+      <c r="P139" t="n">
         <v>53.96023</v>
       </c>
-      <c r="P139" t="n">
+      <c r="Q139" t="n">
         <v>-2.01773</v>
       </c>
     </row>
@@ -10789,10 +11484,15 @@
           <t>CMJ approved supplier</t>
         </is>
       </c>
-      <c r="O140" t="n">
+      <c r="O140" t="inlineStr">
+        <is>
+          <t>AL5 2TL Hertfordshire</t>
+        </is>
+      </c>
+      <c r="P140" t="n">
         <v>51.81509</v>
       </c>
-      <c r="P140" t="n">
+      <c r="Q140" t="n">
         <v>-0.35626</v>
       </c>
     </row>
@@ -10863,10 +11563,15 @@
           <t>NA</t>
         </is>
       </c>
-      <c r="O141" t="n">
+      <c r="O141" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="P141" t="n">
         <v>51.78405</v>
       </c>
-      <c r="P141" t="n">
+      <c r="Q141" t="n">
         <v>0.11196</v>
       </c>
     </row>
@@ -10937,10 +11642,15 @@
           <t>ISO 9001:2015, ISO 14001:2015</t>
         </is>
       </c>
-      <c r="O142" t="n">
+      <c r="O142" t="inlineStr">
+        <is>
+          <t>TF1 7YU Shropshire</t>
+        </is>
+      </c>
+      <c r="P142" t="n">
         <v>52.678042</v>
       </c>
-      <c r="P142" t="n">
+      <c r="Q142" t="n">
         <v>-2.451427</v>
       </c>
     </row>
@@ -11011,10 +11721,15 @@
           <t>ISO 9001:2015, ISO 14001:2015</t>
         </is>
       </c>
-      <c r="O143" t="n">
+      <c r="O143" t="inlineStr">
+        <is>
+          <t>Unit 10, Charnwood Business Park North Road Loughborough Leicestershire LE11 1QJ UK</t>
+        </is>
+      </c>
+      <c r="P143" t="n">
         <v>52.78162</v>
       </c>
-      <c r="P143" t="n">
+      <c r="Q143" t="n">
         <v>-1.2027</v>
       </c>
     </row>
@@ -11085,10 +11800,15 @@
           <t>NA</t>
         </is>
       </c>
-      <c r="O144" t="n">
+      <c r="O144" t="inlineStr">
+        <is>
+          <t>The Hexagon Theatre Queens Walk Reading RG1 7UA UK</t>
+        </is>
+      </c>
+      <c r="P144" t="n">
         <v>51.45465</v>
       </c>
-      <c r="P144" t="n">
+      <c r="Q144" t="n">
         <v>-0.97753</v>
       </c>
     </row>
@@ -11159,10 +11879,15 @@
           <t>ISO 9001, UKAS</t>
         </is>
       </c>
-      <c r="O145" t="n">
+      <c r="O145" t="inlineStr">
+        <is>
+          <t>BS16 7FR Bristol</t>
+        </is>
+      </c>
+      <c r="P145" t="n">
         <v>51.49893</v>
       </c>
-      <c r="P145" t="n">
+      <c r="Q145" t="n">
         <v>-2.47212</v>
       </c>
     </row>
@@ -11233,10 +11958,15 @@
           <t>NA</t>
         </is>
       </c>
-      <c r="O146" t="n">
+      <c r="O146" t="inlineStr">
+        <is>
+          <t>CV21 1ST Warwickshire</t>
+        </is>
+      </c>
+      <c r="P146" t="n">
         <v>52.24064</v>
       </c>
-      <c r="P146" t="n">
+      <c r="Q146" t="n">
         <v>-1.60612</v>
       </c>
     </row>
@@ -11307,10 +12037,15 @@
           <t>ISO 9001 14001 45001, ISO/IEC 17025:2017, UKAS, ISO/IEC 17065:2012</t>
         </is>
       </c>
-      <c r="O147" t="n">
+      <c r="O147" t="inlineStr">
+        <is>
+          <t>CV10 0TU Warwickshire</t>
+        </is>
+      </c>
+      <c r="P147" t="n">
         <v>52.54922</v>
       </c>
-      <c r="P147" t="n">
+      <c r="Q147" t="n">
         <v>-1.45346</v>
       </c>
     </row>
@@ -11381,10 +12116,15 @@
           <t xml:space="preserve">ISO 9001, UKAS </t>
         </is>
       </c>
-      <c r="O148" t="n">
+      <c r="O148" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Unit7 RawdonNetworkCentre MarquisDrive Moira, Leicestershire DE12 6EJ </t>
+        </is>
+      </c>
+      <c r="P148" t="n">
         <v>52.74366</v>
       </c>
-      <c r="P148" t="n">
+      <c r="Q148" t="n">
         <v>-1.54058</v>
       </c>
     </row>
@@ -11455,10 +12195,15 @@
           <t>NA</t>
         </is>
       </c>
-      <c r="O149" t="n">
+      <c r="O149" t="inlineStr">
+        <is>
+          <t>GL6 0JF Gloucestershire</t>
+        </is>
+      </c>
+      <c r="P149" t="n">
         <v>51.69075</v>
       </c>
-      <c r="P149" t="n">
+      <c r="Q149" t="n">
         <v>-2.22228</v>
       </c>
     </row>
@@ -11529,10 +12274,15 @@
           <t>ISO 9001, UKAS</t>
         </is>
       </c>
-      <c r="O150" t="n">
+      <c r="O150" t="inlineStr">
+        <is>
+          <t>S60 5BL South Yorkshire</t>
+        </is>
+      </c>
+      <c r="P150" t="n">
         <v>53.38508</v>
       </c>
-      <c r="P150" t="n">
+      <c r="Q150" t="n">
         <v>-1.38383</v>
       </c>
     </row>
@@ -11603,11 +12353,16 @@
           <t>ISO 9001, UKAS</t>
         </is>
       </c>
-      <c r="O151" t="n">
-        <v>53.59261</v>
+      <c r="O151" t="inlineStr">
+        <is>
+          <t>OL10 2TT Greater Manchester</t>
+        </is>
       </c>
       <c r="P151" t="n">
-        <v>-2.22873</v>
+        <v>53.58422</v>
+      </c>
+      <c r="Q151" t="n">
+        <v>-2.25549</v>
       </c>
     </row>
     <row r="152">
@@ -11677,11 +12432,16 @@
           <t>NA</t>
         </is>
       </c>
-      <c r="O152" t="n">
-        <v>51.50091</v>
+      <c r="O152" t="inlineStr">
+        <is>
+          <t>SW7 2AZ City of London</t>
+        </is>
       </c>
       <c r="P152" t="n">
-        <v>-0.17496</v>
+        <v>51.49487</v>
+      </c>
+      <c r="Q152" t="n">
+        <v>-0.1732</v>
       </c>
     </row>
     <row r="153">
@@ -11751,10 +12511,15 @@
           <t>NA</t>
         </is>
       </c>
-      <c r="O153" t="n">
+      <c r="O153" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Polaris House North Star Avenue Swindon Wiltshire SN2 1FL </t>
+        </is>
+      </c>
+      <c r="P153" t="n">
         <v>51.56846</v>
       </c>
-      <c r="P153" t="n">
+      <c r="Q153" t="n">
         <v>-1.7895</v>
       </c>
     </row>
@@ -11825,10 +12590,15 @@
           <t>NA</t>
         </is>
       </c>
-      <c r="O154" t="n">
+      <c r="O154" t="inlineStr">
+        <is>
+          <t>TF7 4NY Shropshire</t>
+        </is>
+      </c>
+      <c r="P154" t="n">
         <v>52.64994</v>
       </c>
-      <c r="P154" t="n">
+      <c r="Q154" t="n">
         <v>-2.42295</v>
       </c>
     </row>
@@ -11899,10 +12669,15 @@
           <t>NA</t>
         </is>
       </c>
-      <c r="O155" t="n">
+      <c r="O155" t="inlineStr">
+        <is>
+          <t>CB24 4UQ Cambridgeshire</t>
+        </is>
+      </c>
+      <c r="P155" t="n">
         <v>52.25366</v>
       </c>
-      <c r="P155" t="n">
+      <c r="Q155" t="n">
         <v>0.10417</v>
       </c>
     </row>
@@ -11973,10 +12748,15 @@
           <t>NA</t>
         </is>
       </c>
-      <c r="O156" t="n">
+      <c r="O156" t="inlineStr">
+        <is>
+          <t>bb7 4qb Lancashire</t>
+        </is>
+      </c>
+      <c r="P156" t="n">
         <v>53.8883</v>
       </c>
-      <c r="P156" t="n">
+      <c r="Q156" t="n">
         <v>-2.38683</v>
       </c>
     </row>
@@ -12047,10 +12827,15 @@
           <t>NA</t>
         </is>
       </c>
-      <c r="O157" t="n">
+      <c r="O157" t="inlineStr">
+        <is>
+          <t>NG7 7HL Nottinghamshire</t>
+        </is>
+      </c>
+      <c r="P157" t="n">
         <v>52.97261</v>
       </c>
-      <c r="P157" t="n">
+      <c r="Q157" t="n">
         <v>-1.17224</v>
       </c>
     </row>
@@ -12121,10 +12906,15 @@
           <t>Nadcap, AS 9100D</t>
         </is>
       </c>
-      <c r="O158" t="n">
+      <c r="O158" t="inlineStr">
+        <is>
+          <t>Coppice Lane Aldridge West Midlands West Midlands WS9 9AA UK</t>
+        </is>
+      </c>
+      <c r="P158" t="n">
         <v>52.55688</v>
       </c>
-      <c r="P158" t="n">
+      <c r="Q158" t="n">
         <v>-2.04163</v>
       </c>
     </row>
@@ -12195,10 +12985,15 @@
           <t>NA</t>
         </is>
       </c>
-      <c r="O159" t="n">
+      <c r="O159" t="inlineStr">
+        <is>
+          <t>Quay Lane Gosport PO12 4LB United Kingdom</t>
+        </is>
+      </c>
+      <c r="P159" t="n">
         <v>50.81377</v>
       </c>
-      <c r="P159" t="n">
+      <c r="Q159" t="n">
         <v>-1.13906</v>
       </c>
     </row>
@@ -12269,11 +13064,16 @@
           <t>NA</t>
         </is>
       </c>
-      <c r="O160" t="n">
-        <v>53.30336</v>
+      <c r="O160" t="inlineStr">
+        <is>
+          <t>S80 2PU Nottinghamshire</t>
+        </is>
       </c>
       <c r="P160" t="n">
-        <v>-1.10926</v>
+        <v>53.30238</v>
+      </c>
+      <c r="Q160" t="n">
+        <v>-1.10338</v>
       </c>
     </row>
     <row r="161">
@@ -12343,10 +13143,15 @@
           <t>NA</t>
         </is>
       </c>
-      <c r="O161" t="n">
+      <c r="O161" t="inlineStr">
+        <is>
+          <t>OX28 4FA Oxfordshire</t>
+        </is>
+      </c>
+      <c r="P161" t="n">
         <v>51.7813</v>
       </c>
-      <c r="P161" t="n">
+      <c r="Q161" t="n">
         <v>-1.48466</v>
       </c>
     </row>
@@ -12417,10 +13222,15 @@
           <t>NA</t>
         </is>
       </c>
-      <c r="O162" t="n">
+      <c r="O162" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Unit 9, The Felbridge Centre East Grinstead West Sussex RH19 1XP </t>
+        </is>
+      </c>
+      <c r="P162" t="n">
         <v>51.1413</v>
       </c>
-      <c r="P162" t="n">
+      <c r="Q162" t="n">
         <v>-0.03838</v>
       </c>
     </row>
@@ -12491,10 +13301,15 @@
           <t>NA</t>
         </is>
       </c>
-      <c r="O163" t="n">
+      <c r="O163" t="inlineStr">
+        <is>
+          <t>51 Clarkegrove Road Shiffield South Yorkshire S10 2NH United Kingdom</t>
+        </is>
+      </c>
+      <c r="P163" t="n">
         <v>53.78172</v>
       </c>
-      <c r="P163" t="n">
+      <c r="Q163" t="n">
         <v>-1.57489</v>
       </c>
     </row>
@@ -12565,10 +13380,15 @@
           <t>NA</t>
         </is>
       </c>
-      <c r="O164" t="n">
+      <c r="O164" t="inlineStr">
+        <is>
+          <t>ST6 6AS Staffordshire</t>
+        </is>
+      </c>
+      <c r="P164" t="n">
         <v>53.055506</v>
       </c>
-      <c r="P164" t="n">
+      <c r="Q164" t="n">
         <v>-2.206849</v>
       </c>
     </row>
@@ -12639,10 +13459,15 @@
           <t>ISO 9001:2015</t>
         </is>
       </c>
-      <c r="O165" t="n">
+      <c r="O165" t="inlineStr">
+        <is>
+          <t>AL5 5BZ Hertfordshire</t>
+        </is>
+      </c>
+      <c r="P165" t="n">
         <v>51.65125</v>
       </c>
-      <c r="P165" t="n">
+      <c r="Q165" t="n">
         <v>-0.39045</v>
       </c>
     </row>
@@ -12713,10 +13538,15 @@
           <t>ISO 9001:2015</t>
         </is>
       </c>
-      <c r="O166" t="n">
+      <c r="O166" t="inlineStr">
+        <is>
+          <t>1A Bankwood Industrial Estate Bankwood Lane Doncaster DN11 0PS United Kingdom</t>
+        </is>
+      </c>
+      <c r="P166" t="n">
         <v>53.48019</v>
       </c>
-      <c r="P166" t="n">
+      <c r="Q166" t="n">
         <v>-1.08539</v>
       </c>
     </row>
@@ -12787,10 +13617,15 @@
           <t>ISO 9001:2015</t>
         </is>
       </c>
-      <c r="O167" t="n">
+      <c r="O167" t="inlineStr">
+        <is>
+          <t>Capital Court, 42 Ffordd William Morgan St. Asaph Business Park St. Asaph Denbighshire LL17 0JG UK</t>
+        </is>
+      </c>
+      <c r="P167" t="n">
         <v>53.25633</v>
       </c>
-      <c r="P167" t="n">
+      <c r="Q167" t="n">
         <v>-3.47658</v>
       </c>
     </row>
@@ -12861,10 +13696,15 @@
           <t>ISO 9001</t>
         </is>
       </c>
-      <c r="O168" t="n">
+      <c r="O168" t="inlineStr">
+        <is>
+          <t>DE74 2SA Leicestershire</t>
+        </is>
+      </c>
+      <c r="P168" t="n">
         <v>39.390897</v>
       </c>
-      <c r="P168" t="n">
+      <c r="Q168" t="n">
         <v>-99.066067</v>
       </c>
     </row>
@@ -12935,10 +13775,15 @@
           <t>ISO 9001:2015, Cyber Essentials</t>
         </is>
       </c>
-      <c r="O169" t="n">
+      <c r="O169" t="inlineStr">
+        <is>
+          <t>United Kingdom</t>
+        </is>
+      </c>
+      <c r="P169" t="n">
         <v>52.07755</v>
       </c>
-      <c r="P169" t="n">
+      <c r="Q169" t="n">
         <v>-1.33904</v>
       </c>
     </row>
@@ -13009,10 +13854,15 @@
           <t>NA</t>
         </is>
       </c>
-      <c r="O170" t="n">
+      <c r="O170" t="inlineStr">
+        <is>
+          <t>WS10 9LL West Midlands</t>
+        </is>
+      </c>
+      <c r="P170" t="n">
         <v>52.5683</v>
       </c>
-      <c r="P170" t="n">
+      <c r="Q170" t="n">
         <v>-2.02546</v>
       </c>
     </row>
@@ -13083,10 +13933,15 @@
           <t>ISO 9001:2015</t>
         </is>
       </c>
-      <c r="O171" t="n">
+      <c r="O171" t="inlineStr">
+        <is>
+          <t>CV21 1PB Warwickshire</t>
+        </is>
+      </c>
+      <c r="P171" t="n">
         <v>52.38747</v>
       </c>
-      <c r="P171" t="n">
+      <c r="Q171" t="n">
         <v>-1.2662</v>
       </c>
     </row>
@@ -13157,10 +14012,15 @@
           <t>NA</t>
         </is>
       </c>
-      <c r="O172" t="n">
+      <c r="O172" t="inlineStr">
+        <is>
+          <t>MK43 0AL Bedfordshire</t>
+        </is>
+      </c>
+      <c r="P172" t="n">
         <v>52.07272</v>
       </c>
-      <c r="P172" t="n">
+      <c r="Q172" t="n">
         <v>-0.62683</v>
       </c>
     </row>
@@ -13231,10 +14091,15 @@
           <t>NA</t>
         </is>
       </c>
-      <c r="O173" t="n">
+      <c r="O173" t="inlineStr">
+        <is>
+          <t>Dennis Road Widnes WA8 0GU United Kingdom</t>
+        </is>
+      </c>
+      <c r="P173" t="n">
         <v>53.36349</v>
       </c>
-      <c r="P173" t="n">
+      <c r="Q173" t="n">
         <v>-2.71765</v>
       </c>
     </row>
@@ -13305,10 +14170,15 @@
           <t>UKAS, GMP, Nadcap, 10 CFR 50 Appendix B, ISO/IEC 17025, Cyber Essentials Plus</t>
         </is>
       </c>
-      <c r="O174" t="n">
+      <c r="O174" t="inlineStr">
+        <is>
+          <t>ST4 7LQ Staffordshire</t>
+        </is>
+      </c>
+      <c r="P174" t="n">
         <v>53.00846</v>
       </c>
-      <c r="P174" t="n">
+      <c r="Q174" t="n">
         <v>-2.20172</v>
       </c>
     </row>
@@ -13379,10 +14249,15 @@
           <t>NA</t>
         </is>
       </c>
-      <c r="O175" t="n">
+      <c r="O175" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Rutledge House 78 Clarkehouse Road Sheffield S10 2LJ </t>
+        </is>
+      </c>
+      <c r="P175" t="n">
         <v>53.373</v>
       </c>
-      <c r="P175" t="n">
+      <c r="Q175" t="n">
         <v>-1.499</v>
       </c>
     </row>
@@ -13453,10 +14328,15 @@
           <t>NA</t>
         </is>
       </c>
-      <c r="O176" t="n">
+      <c r="O176" t="inlineStr">
+        <is>
+          <t>M43 7AJ Greater Manchester</t>
+        </is>
+      </c>
+      <c r="P176" t="n">
         <v>53.48403</v>
       </c>
-      <c r="P176" t="n">
+      <c r="Q176" t="n">
         <v>-2.08217</v>
       </c>
     </row>
@@ -13527,10 +14407,15 @@
           <t>ISO 9001, ISO 13485, EN 9100, ISO 14001</t>
         </is>
       </c>
-      <c r="O177" t="n">
+      <c r="O177" t="inlineStr">
+        <is>
+          <t>S60 5WG South Yorkshire</t>
+        </is>
+      </c>
+      <c r="P177" t="n">
         <v>53.38771</v>
       </c>
-      <c r="P177" t="n">
+      <c r="Q177" t="n">
         <v>-1.37948</v>
       </c>
     </row>
@@ -13601,10 +14486,15 @@
           <t>NA</t>
         </is>
       </c>
-      <c r="O178" t="n">
+      <c r="O178" t="inlineStr">
+        <is>
+          <t>WR4 9GN Worcestershire</t>
+        </is>
+      </c>
+      <c r="P178" t="n">
         <v>52.19964</v>
       </c>
-      <c r="P178" t="n">
+      <c r="Q178" t="n">
         <v>-2.19056</v>
       </c>
     </row>
@@ -13675,10 +14565,15 @@
           <t>ISO 9001 14001 45001</t>
         </is>
       </c>
-      <c r="O179" t="n">
+      <c r="O179" t="inlineStr">
+        <is>
+          <t>Gee Road Whitwick Business Park Coalville Leicestershire LE67 4NH United Kingdom</t>
+        </is>
+      </c>
+      <c r="P179" t="n">
         <v>52.72687</v>
       </c>
-      <c r="P179" t="n">
+      <c r="Q179" t="n">
         <v>-1.36172</v>
       </c>
     </row>
@@ -13749,10 +14644,15 @@
           <t>NA</t>
         </is>
       </c>
-      <c r="O180" t="n">
+      <c r="O180" t="inlineStr">
+        <is>
+          <t>WR4 9NF Worcestershire</t>
+        </is>
+      </c>
+      <c r="P180" t="n">
         <v>52.21663</v>
       </c>
-      <c r="P180" t="n">
+      <c r="Q180" t="n">
         <v>-2.18743</v>
       </c>
     </row>
@@ -13823,10 +14723,15 @@
           <t>NA</t>
         </is>
       </c>
-      <c r="O181" t="n">
+      <c r="O181" t="inlineStr">
+        <is>
+          <t>CB21 4XN Cambridgeshire</t>
+        </is>
+      </c>
+      <c r="P181" t="n">
         <v>52.09367</v>
       </c>
-      <c r="P181" t="n">
+      <c r="Q181" t="n">
         <v>0.27454</v>
       </c>
     </row>
@@ -13897,10 +14802,15 @@
           <t>ISO 9001, UKAS, ISO 22301:2012</t>
         </is>
       </c>
-      <c r="O182" t="n">
+      <c r="O182" t="inlineStr">
+        <is>
+          <t>Unit 2, Farfield Park, Manvers Way, Wath upon Dearne, Rotherham S63 5DB United Kingdom</t>
+        </is>
+      </c>
+      <c r="P182" t="n">
         <v>53.50262</v>
       </c>
-      <c r="P182" t="n">
+      <c r="Q182" t="n">
         <v>-1.32024</v>
       </c>
     </row>
@@ -13971,10 +14881,15 @@
           <t>NA</t>
         </is>
       </c>
-      <c r="O183" t="n">
+      <c r="O183" t="inlineStr">
+        <is>
+          <t>WR14 1QD Worcestershire</t>
+        </is>
+      </c>
+      <c r="P183" t="n">
         <v>52.12197</v>
       </c>
-      <c r="P183" t="n">
+      <c r="Q183" t="n">
         <v>-2.33537</v>
       </c>
     </row>
@@ -14045,10 +14960,15 @@
           <t>AS/EN 9100, ISO 13485</t>
         </is>
       </c>
-      <c r="O184" t="n">
+      <c r="O184" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Unit E18 Langham Park Lows Lane Ilkeston Derbyshire De74RJ </t>
+        </is>
+      </c>
+      <c r="P184" t="n">
         <v>52.9447</v>
       </c>
-      <c r="P184" t="n">
+      <c r="Q184" t="n">
         <v>-1.29794</v>
       </c>
     </row>
@@ -14119,10 +15039,15 @@
           <t>ISO 9001:2015</t>
         </is>
       </c>
-      <c r="O185" t="n">
+      <c r="O185" t="inlineStr">
+        <is>
+          <t>SG5 3JH Hertfordshire</t>
+        </is>
+      </c>
+      <c r="P185" t="n">
         <v>52.00548</v>
       </c>
-      <c r="P185" t="n">
+      <c r="Q185" t="n">
         <v>-2.12591</v>
       </c>
     </row>
@@ -14193,10 +15118,15 @@
           <t>ISO 27001</t>
         </is>
       </c>
-      <c r="O186" t="n">
+      <c r="O186" t="inlineStr">
+        <is>
+          <t xml:space="preserve">4 Archipelago Lyon Way Frimley Surrey GU16 7ER </t>
+        </is>
+      </c>
+      <c r="P186" t="n">
         <v>51.31546</v>
       </c>
-      <c r="P186" t="n">
+      <c r="Q186" t="n">
         <v>-0.74995</v>
       </c>
     </row>
@@ -14267,10 +15197,15 @@
           <t>IATF 16949, ISO 9001, UKAS</t>
         </is>
       </c>
-      <c r="O187" t="n">
+      <c r="O187" t="inlineStr">
+        <is>
+          <t>B98 0DG Worcestershire</t>
+        </is>
+      </c>
+      <c r="P187" t="n">
         <v>52.28873</v>
       </c>
-      <c r="P187" t="n">
+      <c r="Q187" t="n">
         <v>-1.89669</v>
       </c>
     </row>
@@ -14341,10 +15276,15 @@
           <t>ISO 9001:2015</t>
         </is>
       </c>
-      <c r="O188" t="n">
+      <c r="O188" t="inlineStr">
+        <is>
+          <t>EX31 1GE Devon</t>
+        </is>
+      </c>
+      <c r="P188" t="n">
         <v>51.08535</v>
       </c>
-      <c r="P188" t="n">
+      <c r="Q188" t="n">
         <v>-4.07212</v>
       </c>
     </row>
@@ -14415,10 +15355,15 @@
           <t>NA</t>
         </is>
       </c>
-      <c r="O189" t="n">
+      <c r="O189" t="inlineStr">
+        <is>
+          <t>S9 1XU United Kingdom</t>
+        </is>
+      </c>
+      <c r="P189" t="n">
         <v>53.39601</v>
       </c>
-      <c r="P189" t="n">
+      <c r="Q189" t="n">
         <v>-1.39204</v>
       </c>
     </row>
@@ -14489,10 +15434,15 @@
           <t>NA</t>
         </is>
       </c>
-      <c r="O190" t="n">
+      <c r="O190" t="inlineStr">
+        <is>
+          <t xml:space="preserve">FeynmanWayCentral Bristol&amp;BathSciencePark EmersonsGreen Bristol, BS167FS BS16 7FS </t>
+        </is>
+      </c>
+      <c r="P190" t="n">
         <v>51.49677</v>
       </c>
-      <c r="P190" t="n">
+      <c r="Q190" t="n">
         <v>-2.46457</v>
       </c>
     </row>
@@ -14563,10 +15513,15 @@
           <t>ISO 9001:2015, ISO 14001:2015</t>
         </is>
       </c>
-      <c r="O191" t="n">
+      <c r="O191" t="inlineStr">
+        <is>
+          <t>424 Argosy Road East Midlands Airport,Castle Donington Derby Derbyshire DE74 2SA UK</t>
+        </is>
+      </c>
+      <c r="P191" t="n">
         <v>52.82595</v>
       </c>
-      <c r="P191" t="n">
+      <c r="Q191" t="n">
         <v>-1.31827</v>
       </c>
     </row>
@@ -14637,10 +15592,15 @@
           <t>NA</t>
         </is>
       </c>
-      <c r="O192" t="n">
+      <c r="O192" t="inlineStr">
+        <is>
+          <t>CA11 9BQ Cumbria</t>
+        </is>
+      </c>
+      <c r="P192" t="n">
         <v>54.66765</v>
       </c>
-      <c r="P192" t="n">
+      <c r="Q192" t="n">
         <v>-2.76807</v>
       </c>
     </row>
@@ -14711,10 +15671,15 @@
           <t>ISO 9001:2015, ISO 14001:2015</t>
         </is>
       </c>
-      <c r="O193" t="n">
+      <c r="O193" t="inlineStr">
+        <is>
+          <t>HP12 3SY Buckinghamshire</t>
+        </is>
+      </c>
+      <c r="P193" t="n">
         <v>51.61917</v>
       </c>
-      <c r="P193" t="n">
+      <c r="Q193" t="n">
         <v>-0.77815</v>
       </c>
     </row>
@@ -14785,10 +15750,15 @@
           <t>NA</t>
         </is>
       </c>
-      <c r="O194" t="n">
+      <c r="O194" t="inlineStr">
+        <is>
+          <t>BB1 3NY Lancashire</t>
+        </is>
+      </c>
+      <c r="P194" t="n">
         <v>53.72476</v>
       </c>
-      <c r="P194" t="n">
+      <c r="Q194" t="n">
         <v>-2.50173</v>
       </c>
     </row>
@@ -14859,11 +15829,16 @@
           <t>ISO 9001, UKAS</t>
         </is>
       </c>
-      <c r="O195" t="n">
-        <v>51.98098</v>
+      <c r="O195" t="inlineStr">
+        <is>
+          <t>SG6 1JA Hertfordshire</t>
+        </is>
       </c>
       <c r="P195" t="n">
-        <v>-0.22339</v>
+        <v>51.9809</v>
+      </c>
+      <c r="Q195" t="n">
+        <v>-0.22333</v>
       </c>
     </row>
     <row r="196">
@@ -14933,10 +15908,15 @@
           <t>NA</t>
         </is>
       </c>
-      <c r="O196" t="n">
+      <c r="O196" t="inlineStr">
+        <is>
+          <t>SS2 5QH Essex</t>
+        </is>
+      </c>
+      <c r="P196" t="n">
         <v>51.55887</v>
       </c>
-      <c r="P196" t="n">
+      <c r="Q196" t="n">
         <v>0.70918</v>
       </c>
     </row>
@@ -15007,10 +15987,15 @@
           <t>NA</t>
         </is>
       </c>
-      <c r="O197" t="n">
+      <c r="O197" t="inlineStr">
+        <is>
+          <t>Bristol Robotics Laboratory Filton Bristol Avon &amp; Somerset BS16 1QY UK</t>
+        </is>
+      </c>
+      <c r="P197" t="n">
         <v>51.48417</v>
       </c>
-      <c r="P197" t="n">
+      <c r="Q197" t="n">
         <v>-3.19194</v>
       </c>
     </row>
@@ -15081,10 +16066,15 @@
           <t>NA</t>
         </is>
       </c>
-      <c r="O198" t="n">
+      <c r="O198" t="inlineStr">
+        <is>
+          <t>The Yard Old Crown Lane Brentwood Essex CM14 5TA UK</t>
+        </is>
+      </c>
+      <c r="P198" t="n">
         <v>51.65323</v>
       </c>
-      <c r="P198" t="n">
+      <c r="Q198" t="n">
         <v>0.26442</v>
       </c>
     </row>
@@ -15155,10 +16145,15 @@
           <t>NA</t>
         </is>
       </c>
-      <c r="O199" t="n">
+      <c r="O199" t="inlineStr">
+        <is>
+          <t>SS14 3BY Essex</t>
+        </is>
+      </c>
+      <c r="P199" t="n">
         <v>51.57051</v>
       </c>
-      <c r="P199" t="n">
+      <c r="Q199" t="n">
         <v>0.4682</v>
       </c>
     </row>
@@ -15229,10 +16224,15 @@
           <t>NA</t>
         </is>
       </c>
-      <c r="O200" t="n">
+      <c r="O200" t="inlineStr">
+        <is>
+          <t>OX5 1PF Oxfordshire</t>
+        </is>
+      </c>
+      <c r="P200" t="n">
         <v>39.390897</v>
       </c>
-      <c r="P200" t="n">
+      <c r="Q200" t="n">
         <v>-99.066067</v>
       </c>
     </row>
@@ -15303,10 +16303,15 @@
           <t>NA</t>
         </is>
       </c>
-      <c r="O201" t="n">
+      <c r="O201" t="inlineStr">
+        <is>
+          <t>OX1 2JD Oxfordshire</t>
+        </is>
+      </c>
+      <c r="P201" t="n">
         <v>51.75788</v>
       </c>
-      <c r="P201" t="n">
+      <c r="Q201" t="n">
         <v>-1.2621</v>
       </c>
     </row>
@@ -15377,10 +16382,15 @@
           <t>NA</t>
         </is>
       </c>
-      <c r="O202" t="n">
+      <c r="O202" t="inlineStr">
+        <is>
+          <t xml:space="preserve">AviationWay DurhamTeesValleyAirport Darlington CountyDurham DL2 1NA </t>
+        </is>
+      </c>
+      <c r="P202" t="n">
         <v>54.51548</v>
       </c>
-      <c r="P202" t="n">
+      <c r="Q202" t="n">
         <v>-1.43031</v>
       </c>
     </row>
@@ -15451,10 +16461,15 @@
           <t>NA</t>
         </is>
       </c>
-      <c r="O203" t="n">
+      <c r="O203" t="inlineStr">
+        <is>
+          <t>_x000D_United Kingdom Hertford Unit 2-3 Priory Wharf Priory Street United Kingdom</t>
+        </is>
+      </c>
+      <c r="P203" t="n">
         <v>50.9646</v>
       </c>
-      <c r="P203" t="n">
+      <c r="Q203" t="n">
         <v>-0.12218</v>
       </c>
     </row>
@@ -15525,10 +16540,15 @@
           <t>NA</t>
         </is>
       </c>
-      <c r="O204" t="n">
+      <c r="O204" t="inlineStr">
+        <is>
+          <t>Western Avenue Cardiff CF5 2YB UK</t>
+        </is>
+      </c>
+      <c r="P204" t="n">
         <v>51.49631</v>
       </c>
-      <c r="P204" t="n">
+      <c r="Q204" t="n">
         <v>-3.21051</v>
       </c>
     </row>
@@ -15599,10 +16619,15 @@
           <t>NA</t>
         </is>
       </c>
-      <c r="O205" t="n">
+      <c r="O205" t="inlineStr">
+        <is>
+          <t>14 Kirkpatrick Court Dumfries Scotland DG2 7DG UK</t>
+        </is>
+      </c>
+      <c r="P205" t="n">
         <v>55.06146</v>
       </c>
-      <c r="P205" t="n">
+      <c r="Q205" t="n">
         <v>-3.60899</v>
       </c>
     </row>
@@ -15673,10 +16698,15 @@
           <t>NA</t>
         </is>
       </c>
-      <c r="O206" t="n">
+      <c r="O206" t="inlineStr">
+        <is>
+          <t>BN27 3JU East Sussex</t>
+        </is>
+      </c>
+      <c r="P206" t="n">
         <v>50.85936</v>
       </c>
-      <c r="P206" t="n">
+      <c r="Q206" t="n">
         <v>0.24685</v>
       </c>
     </row>
@@ -15747,10 +16777,15 @@
           <t>NA</t>
         </is>
       </c>
-      <c r="O207" t="n">
+      <c r="O207" t="inlineStr">
+        <is>
+          <t>Cambridge House Oxney Road Peterborough PE1 5YW UK</t>
+        </is>
+      </c>
+      <c r="P207" t="n">
         <v>52.57323</v>
       </c>
-      <c r="P207" t="n">
+      <c r="Q207" t="n">
         <v>-0.2093</v>
       </c>
     </row>
@@ -15822,10 +16857,15 @@
           <t>ISO 9001, UKAS</t>
         </is>
       </c>
-      <c r="O208" t="n">
+      <c r="O208" t="inlineStr">
+        <is>
+          <t>GL2 2AT Gloucestershire</t>
+        </is>
+      </c>
+      <c r="P208" t="n">
         <v>51.83806</v>
       </c>
-      <c r="P208" t="n">
+      <c r="Q208" t="n">
         <v>-2.25635</v>
       </c>
     </row>
@@ -15896,10 +16936,15 @@
           <t>NA</t>
         </is>
       </c>
-      <c r="O209" t="n">
+      <c r="O209" t="inlineStr">
+        <is>
+          <t>26 Chase Road Park Roya London NW10 6BB UK</t>
+        </is>
+      </c>
+      <c r="P209" t="n">
         <v>51.52798</v>
       </c>
-      <c r="P209" t="n">
+      <c r="Q209" t="n">
         <v>-0.25893</v>
       </c>
     </row>
@@ -15970,10 +17015,15 @@
           <t>NA</t>
         </is>
       </c>
-      <c r="O210" t="n">
+      <c r="O210" t="inlineStr">
+        <is>
+          <t>NN4 7YL Northamptonshire</t>
+        </is>
+      </c>
+      <c r="P210" t="n">
         <v>52.30469</v>
       </c>
-      <c r="P210" t="n">
+      <c r="Q210" t="n">
         <v>-1.07749</v>
       </c>
     </row>
@@ -16044,10 +17094,15 @@
           <t>NA</t>
         </is>
       </c>
-      <c r="O211" t="n">
+      <c r="O211" t="inlineStr">
+        <is>
+          <t>BN1 9PZ East Sussex</t>
+        </is>
+      </c>
+      <c r="P211" t="n">
         <v>50.86955</v>
       </c>
-      <c r="P211" t="n">
+      <c r="Q211" t="n">
         <v>-0.10397</v>
       </c>
     </row>
@@ -16118,10 +17173,15 @@
           <t>NA</t>
         </is>
       </c>
-      <c r="O212" t="n">
+      <c r="O212" t="inlineStr">
+        <is>
+          <t>The Old Fire Station Pandy Park Aberkenfig Brigend CF32 9RE UK</t>
+        </is>
+      </c>
+      <c r="P212" t="n">
         <v>50.67301</v>
       </c>
-      <c r="P212" t="n">
+      <c r="Q212" t="n">
         <v>-3.84321</v>
       </c>
     </row>
@@ -16192,10 +17252,15 @@
           <t>NA</t>
         </is>
       </c>
-      <c r="O213" t="n">
+      <c r="O213" t="inlineStr">
+        <is>
+          <t>CB6 1RA Cambridgeshire</t>
+        </is>
+      </c>
+      <c r="P213" t="n">
         <v>52.45848</v>
       </c>
-      <c r="P213" t="n">
+      <c r="Q213" t="n">
         <v>0.30411</v>
       </c>
     </row>
@@ -16266,10 +17331,15 @@
           <t>NA</t>
         </is>
       </c>
-      <c r="O214" t="n">
+      <c r="O214" t="inlineStr">
+        <is>
+          <t>28 Britton Street London EC1M 5UE UK</t>
+        </is>
+      </c>
+      <c r="P214" t="n">
         <v>51.4147</v>
       </c>
-      <c r="P214" t="n">
+      <c r="Q214" t="n">
         <v>0.27554</v>
       </c>
     </row>
@@ -16340,10 +17410,15 @@
           <t>NA</t>
         </is>
       </c>
-      <c r="O215" t="n">
+      <c r="O215" t="inlineStr">
+        <is>
+          <t>64 Thoroughfare Woodbridge Suffolk IP12 1AL UK</t>
+        </is>
+      </c>
+      <c r="P215" t="n">
         <v>51.49538</v>
       </c>
-      <c r="P215" t="n">
+      <c r="Q215" t="n">
         <v>-0.07978</v>
       </c>
     </row>
@@ -16414,10 +17489,15 @@
           <t>ISO 9001, UKAS, Cyber Essentials</t>
         </is>
       </c>
-      <c r="O216" t="n">
+      <c r="O216" t="inlineStr">
+        <is>
+          <t>RG14 5TS Berkshire</t>
+        </is>
+      </c>
+      <c r="P216" t="n">
         <v>51.39887</v>
       </c>
-      <c r="P216" t="n">
+      <c r="Q216" t="n">
         <v>-1.29272</v>
       </c>
     </row>
@@ -16488,10 +17568,15 @@
           <t>NA</t>
         </is>
       </c>
-      <c r="O217" t="n">
+      <c r="O217" t="inlineStr">
+        <is>
+          <t>Maryport Business Centre Main Road Maryport Cumbria CA15 8NG UK</t>
+        </is>
+      </c>
+      <c r="P217" t="n">
         <v>54.70782</v>
       </c>
-      <c r="P217" t="n">
+      <c r="Q217" t="n">
         <v>-3.50099</v>
       </c>
     </row>
@@ -16562,10 +17647,15 @@
           <t>NA</t>
         </is>
       </c>
-      <c r="O218" t="n">
+      <c r="O218" t="inlineStr">
+        <is>
+          <t>130 Wilbury Rd Letchworth Garden City Hertfordshire SG6 4JG United Kingdom</t>
+        </is>
+      </c>
+      <c r="P218" t="n">
         <v>51.98797</v>
       </c>
-      <c r="P218" t="n">
+      <c r="Q218" t="n">
         <v>-0.22934</v>
       </c>
     </row>
@@ -16636,10 +17726,15 @@
           <t>NA</t>
         </is>
       </c>
-      <c r="O219" t="n">
+      <c r="O219" t="inlineStr">
+        <is>
+          <t>Castle Lane Melbourne Derbyshire DE73 8JB UK</t>
+        </is>
+      </c>
+      <c r="P219" t="n">
         <v>52.82428</v>
       </c>
-      <c r="P219" t="n">
+      <c r="Q219" t="n">
         <v>-1.42342</v>
       </c>
     </row>
@@ -16710,10 +17805,15 @@
           <t>NA</t>
         </is>
       </c>
-      <c r="O220" t="n">
+      <c r="O220" t="inlineStr">
+        <is>
+          <t>Bezant House Bradgate Park View Chellaston Derby DE73 5UH United KIngdom</t>
+        </is>
+      </c>
+      <c r="P220" t="n">
         <v>52.86198</v>
       </c>
-      <c r="P220" t="n">
+      <c r="Q220" t="n">
         <v>-1.44025</v>
       </c>
     </row>
@@ -16784,10 +17884,15 @@
           <t>NA</t>
         </is>
       </c>
-      <c r="O221" t="n">
+      <c r="O221" t="inlineStr">
+        <is>
+          <t>Units 19 &amp; 20, Whitworth Road Armstrong Industrial Estate Washington Tyne &amp; Wear NE37 1PR UK</t>
+        </is>
+      </c>
+      <c r="P221" t="n">
         <v>52.46154</v>
       </c>
-      <c r="P221" t="n">
+      <c r="Q221" t="n">
         <v>-2.02787</v>
       </c>
     </row>
@@ -16858,10 +17963,15 @@
           <t>NA</t>
         </is>
       </c>
-      <c r="O222" t="n">
+      <c r="O222" t="inlineStr">
+        <is>
+          <t>BS1 6QA Bristol</t>
+        </is>
+      </c>
+      <c r="P222" t="n">
         <v>51.46146</v>
       </c>
-      <c r="P222" t="n">
+      <c r="Q222" t="n">
         <v>-2.59058</v>
       </c>
     </row>
@@ -16932,10 +18042,15 @@
           <t>ISO 9001:2015, AS 9100:2016</t>
         </is>
       </c>
-      <c r="O223" t="n">
+      <c r="O223" t="inlineStr">
+        <is>
+          <t>PE19 6YH Cambridgeshire</t>
+        </is>
+      </c>
+      <c r="P223" t="n">
         <v>52.20809</v>
       </c>
-      <c r="P223" t="n">
+      <c r="Q223" t="n">
         <v>-0.27064</v>
       </c>
     </row>
@@ -17006,10 +18121,15 @@
           <t>NA</t>
         </is>
       </c>
-      <c r="O224" t="n">
+      <c r="O224" t="inlineStr">
+        <is>
+          <t xml:space="preserve">NewMills Wotton-under-Edge Gloucestershire GL12 8JR </t>
+        </is>
+      </c>
+      <c r="P224" t="n">
         <v>51.63444</v>
       </c>
-      <c r="P224" t="n">
+      <c r="Q224" t="n">
         <v>-2.3788</v>
       </c>
     </row>
@@ -17080,10 +18200,15 @@
           <t>ISO 9001:2015</t>
         </is>
       </c>
-      <c r="O225" t="n">
+      <c r="O225" t="inlineStr">
+        <is>
+          <t>S33 6RB Derbyshire</t>
+        </is>
+      </c>
+      <c r="P225" t="n">
         <v>53.34673</v>
       </c>
-      <c r="P225" t="n">
+      <c r="Q225" t="n">
         <v>-1.72293</v>
       </c>
     </row>
@@ -17154,10 +18279,15 @@
           <t>NA</t>
         </is>
       </c>
-      <c r="O226" t="n">
+      <c r="O226" t="inlineStr">
+        <is>
+          <t>Unit 434, Birch Park Thorp Arch Estate Wetherby North Yorkshire LS23 7FG UK</t>
+        </is>
+      </c>
+      <c r="P226" t="n">
         <v>53.91119</v>
       </c>
-      <c r="P226" t="n">
+      <c r="Q226" t="n">
         <v>-1.31402</v>
       </c>
     </row>
@@ -17228,10 +18358,15 @@
           <t>NA</t>
         </is>
       </c>
-      <c r="O227" t="n">
+      <c r="O227" t="inlineStr">
+        <is>
+          <t>M14 7LU Greater Manchester</t>
+        </is>
+      </c>
+      <c r="P227" t="n">
         <v>39.390897</v>
       </c>
-      <c r="P227" t="n">
+      <c r="Q227" t="n">
         <v>-99.066067</v>
       </c>
     </row>
@@ -17302,10 +18437,15 @@
           <t>NA</t>
         </is>
       </c>
-      <c r="O228" t="n">
+      <c r="O228" t="inlineStr">
+        <is>
+          <t>HP22 5BH Buckinghamshire</t>
+        </is>
+      </c>
+      <c r="P228" t="n">
         <v>51.62241</v>
       </c>
-      <c r="P228" t="n">
+      <c r="Q228" t="n">
         <v>-1.29968</v>
       </c>
     </row>
@@ -17376,10 +18516,15 @@
           <t>ISO 9001</t>
         </is>
       </c>
-      <c r="O229" t="n">
+      <c r="O229" t="inlineStr">
+        <is>
+          <t>TW13 7EW City of London</t>
+        </is>
+      </c>
+      <c r="P229" t="n">
         <v>51.44295</v>
       </c>
-      <c r="P229" t="n">
+      <c r="Q229" t="n">
         <v>-0.40748</v>
       </c>
     </row>
@@ -17451,10 +18596,15 @@
           <t>NA</t>
         </is>
       </c>
-      <c r="O230" t="n">
+      <c r="O230" t="inlineStr">
+        <is>
+          <t>BS30 8XG Gloucestershire</t>
+        </is>
+      </c>
+      <c r="P230" t="n">
         <v>51.45869</v>
       </c>
-      <c r="P230" t="n">
+      <c r="Q230" t="n">
         <v>-2.47619</v>
       </c>
     </row>
@@ -17525,10 +18675,15 @@
           <t>NA</t>
         </is>
       </c>
-      <c r="O231" t="n">
+      <c r="O231" t="inlineStr">
+        <is>
+          <t>Red Jacket Works Milland Road Neath South Wales SA11 1NJ UK</t>
+        </is>
+      </c>
+      <c r="P231" t="n">
         <v>51.65787</v>
       </c>
-      <c r="P231" t="n">
+      <c r="Q231" t="n">
         <v>-3.81159</v>
       </c>
     </row>
@@ -17599,10 +18754,15 @@
           <t>UKAS, ascs, Nadcap</t>
         </is>
       </c>
-      <c r="O232" t="n">
+      <c r="O232" t="inlineStr">
+        <is>
+          <t xml:space="preserve">2 Foundry Place Towcester Northamptonshire NN12 6FP </t>
+        </is>
+      </c>
+      <c r="P232" t="n">
         <v>52.25713</v>
       </c>
-      <c r="P232" t="n">
+      <c r="Q232" t="n">
         <v>-1.16267</v>
       </c>
     </row>
@@ -17673,10 +18833,15 @@
           <t>ISO 9001:2015, UKAS</t>
         </is>
       </c>
-      <c r="O233" t="n">
+      <c r="O233" t="inlineStr">
+        <is>
+          <t>EH54 5DL West Lothian</t>
+        </is>
+      </c>
+      <c r="P233" t="n">
         <v>55.91382</v>
       </c>
-      <c r="P233" t="n">
+      <c r="Q233" t="n">
         <v>-3.50919</v>
       </c>
     </row>
@@ -17747,10 +18912,15 @@
           <t>NA</t>
         </is>
       </c>
-      <c r="O234" t="n">
+      <c r="O234" t="inlineStr">
+        <is>
+          <t>ST12 9HP Staffordshire</t>
+        </is>
+      </c>
+      <c r="P234" t="n">
         <v>52.94126</v>
       </c>
-      <c r="P234" t="n">
+      <c r="Q234" t="n">
         <v>-2.17245</v>
       </c>
     </row>
@@ -17821,10 +18991,15 @@
           <t>ISO 50001 9001 14001 20000 13485 27001 45001 22000 22301, BRC</t>
         </is>
       </c>
-      <c r="O235" t="n">
+      <c r="O235" t="inlineStr">
+        <is>
+          <t>CH65 3EN Cheshire</t>
+        </is>
+      </c>
+      <c r="P235" t="n">
         <v>53.28972</v>
       </c>
-      <c r="P235" t="n">
+      <c r="Q235" t="n">
         <v>-2.9059</v>
       </c>
     </row>
@@ -17895,10 +19070,15 @@
           <t>NA</t>
         </is>
       </c>
-      <c r="O236" t="n">
+      <c r="O236" t="inlineStr">
+        <is>
+          <t>Baldwin Road Stourport on Severn Worcestershire DY13 9AX UK</t>
+        </is>
+      </c>
+      <c r="P236" t="n">
         <v>52.34159</v>
       </c>
-      <c r="P236" t="n">
+      <c r="Q236" t="n">
         <v>-2.27185</v>
       </c>
     </row>
@@ -17969,10 +19149,15 @@
           <t>AS9100, UKAS, Nadcap</t>
         </is>
       </c>
-      <c r="O237" t="n">
+      <c r="O237" t="inlineStr">
+        <is>
+          <t>B29 6EY West Midlands</t>
+        </is>
+      </c>
+      <c r="P237" t="n">
         <v>53.76642</v>
       </c>
-      <c r="P237" t="n">
+      <c r="Q237" t="n">
         <v>-1.55317</v>
       </c>
     </row>
@@ -18043,10 +19228,15 @@
           <t>ISO 9001, UKAS</t>
         </is>
       </c>
-      <c r="O238" t="n">
+      <c r="O238" t="inlineStr">
+        <is>
+          <t>Unit 2, Hatch Industrial Park Greywell Road Mapledurwell Hampshire RG24 7NG UK</t>
+        </is>
+      </c>
+      <c r="P238" t="n">
         <v>51.26346</v>
       </c>
-      <c r="P238" t="n">
+      <c r="Q238" t="n">
         <v>-1.02074</v>
       </c>
     </row>
@@ -18117,11 +19307,16 @@
           <t>NA</t>
         </is>
       </c>
-      <c r="O239" t="n">
-        <v>51.53418</v>
+      <c r="O239" t="inlineStr">
+        <is>
+          <t>IG8 9RS City of London</t>
+        </is>
       </c>
       <c r="P239" t="n">
-        <v>-0.053</v>
+        <v>51.5336</v>
+      </c>
+      <c r="Q239" t="n">
+        <v>-0.05215</v>
       </c>
     </row>
     <row r="240">
@@ -18191,10 +19386,15 @@
           <t>NA</t>
         </is>
       </c>
-      <c r="O240" t="n">
+      <c r="O240" t="inlineStr">
+        <is>
+          <t>CV3 4FG West Midlands</t>
+        </is>
+      </c>
+      <c r="P240" t="n">
         <v>52.26379</v>
       </c>
-      <c r="P240" t="n">
+      <c r="Q240" t="n">
         <v>-1.60753</v>
       </c>
     </row>
@@ -18265,10 +19465,15 @@
           <t>NA</t>
         </is>
       </c>
-      <c r="O241" t="n">
+      <c r="O241" t="inlineStr">
+        <is>
+          <t>LL13 9UZ Wrexham</t>
+        </is>
+      </c>
+      <c r="P241" t="n">
         <v>53.6778</v>
       </c>
-      <c r="P241" t="n">
+      <c r="Q241" t="n">
         <v>-1.86544</v>
       </c>
     </row>
@@ -18339,10 +19544,15 @@
           <t>NA</t>
         </is>
       </c>
-      <c r="O242" t="n">
+      <c r="O242" t="inlineStr">
+        <is>
+          <t>SO17 1BJ Hampshire</t>
+        </is>
+      </c>
+      <c r="P242" t="n">
         <v>50.9326</v>
       </c>
-      <c r="P242" t="n">
+      <c r="Q242" t="n">
         <v>-1.39544</v>
       </c>
     </row>
@@ -18413,10 +19623,15 @@
           <t>NA</t>
         </is>
       </c>
-      <c r="O243" t="n">
+      <c r="O243" t="inlineStr">
+        <is>
+          <t>_x000D_United Kingdom Scotland The Whisky Bond 2 Dawson Road Glasgow United Kingdom</t>
+        </is>
+      </c>
+      <c r="P243" t="n">
         <v>55.8312</v>
       </c>
-      <c r="P243" t="n">
+      <c r="Q243" t="n">
         <v>-4.03865</v>
       </c>
     </row>
@@ -18487,10 +19702,15 @@
           <t>NA</t>
         </is>
       </c>
-      <c r="O244" t="n">
+      <c r="O244" t="inlineStr">
+        <is>
+          <t>DE56 0RN Derbyshire</t>
+        </is>
+      </c>
+      <c r="P244" t="n">
         <v>53.00544</v>
       </c>
-      <c r="P244" t="n">
+      <c r="Q244" t="n">
         <v>-1.48223</v>
       </c>
     </row>
@@ -18561,10 +19781,15 @@
           <t>NA</t>
         </is>
       </c>
-      <c r="O245" t="n">
+      <c r="O245" t="inlineStr">
+        <is>
+          <t>TR27 6DS Cornwall</t>
+        </is>
+      </c>
+      <c r="P245" t="n">
         <v>50.16399</v>
       </c>
-      <c r="P245" t="n">
+      <c r="Q245" t="n">
         <v>-5.3496</v>
       </c>
     </row>
@@ -18636,10 +19861,15 @@
           <t>NA</t>
         </is>
       </c>
-      <c r="O246" t="n">
+      <c r="O246" t="inlineStr">
+        <is>
+          <t>Faraday House Woodyard Lane Foston Derbyshire DE65 5BU UK</t>
+        </is>
+      </c>
+      <c r="P246" t="n">
         <v>52.88528</v>
       </c>
-      <c r="P246" t="n">
+      <c r="Q246" t="n">
         <v>-1.70708</v>
       </c>
     </row>
@@ -18711,10 +19941,15 @@
           <t>NA</t>
         </is>
       </c>
-      <c r="O247" t="n">
+      <c r="O247" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Unit1 14CamphillIndustrialEstate WestByfleet Surrey KT14 6EW </t>
+        </is>
+      </c>
+      <c r="P247" t="n">
         <v>51.34381</v>
       </c>
-      <c r="P247" t="n">
+      <c r="Q247" t="n">
         <v>-0.49924</v>
       </c>
     </row>
@@ -18785,10 +20020,15 @@
           <t>NA</t>
         </is>
       </c>
-      <c r="O248" t="n">
+      <c r="O248" t="inlineStr">
+        <is>
+          <t>NG8 1BB Nottinghamshire</t>
+        </is>
+      </c>
+      <c r="P248" t="n">
         <v>52.89677</v>
       </c>
-      <c r="P248" t="n">
+      <c r="Q248" t="n">
         <v>-1.265</v>
       </c>
     </row>
@@ -18859,10 +20099,15 @@
           <t>NA</t>
         </is>
       </c>
-      <c r="O249" t="n">
+      <c r="O249" t="inlineStr">
+        <is>
+          <t>River Mill Staveley Mill Yard Staveley Cumbria LA8 9LR UK</t>
+        </is>
+      </c>
+      <c r="P249" t="n">
         <v>54.31044</v>
       </c>
-      <c r="P249" t="n">
+      <c r="Q249" t="n">
         <v>-2.74052</v>
       </c>
     </row>
@@ -18934,10 +20179,15 @@
           <t>NA</t>
         </is>
       </c>
-      <c r="O250" t="n">
+      <c r="O250" t="inlineStr">
+        <is>
+          <t>Pilot Way Ansty Park Coventry CV7 9JU UK</t>
+        </is>
+      </c>
+      <c r="P250" t="n">
         <v>52.42728</v>
       </c>
-      <c r="P250" t="n">
+      <c r="Q250" t="n">
         <v>-1.40798</v>
       </c>
     </row>
@@ -19008,10 +20258,15 @@
           <t>NA</t>
         </is>
       </c>
-      <c r="O251" t="n">
+      <c r="O251" t="inlineStr">
+        <is>
+          <t>130 wilbury road letchworth Herts SG6 4JG UK</t>
+        </is>
+      </c>
+      <c r="P251" t="n">
         <v>51.98797</v>
       </c>
-      <c r="P251" t="n">
+      <c r="Q251" t="n">
         <v>-0.22934</v>
       </c>
     </row>
@@ -19082,10 +20337,15 @@
           <t>NA</t>
         </is>
       </c>
-      <c r="O252" t="n">
+      <c r="O252" t="inlineStr">
+        <is>
+          <t>Malvern Rd Cheltenham  GL50 2NS United Kingdom</t>
+        </is>
+      </c>
+      <c r="P252" t="n">
         <v>51.90007</v>
       </c>
-      <c r="P252" t="n">
+      <c r="Q252" t="n">
         <v>-2.09082</v>
       </c>
     </row>
@@ -19156,10 +20416,15 @@
           <t>NA</t>
         </is>
       </c>
-      <c r="O253" t="n">
+      <c r="O253" t="inlineStr">
+        <is>
+          <t>RH1 5DZ Surrey</t>
+        </is>
+      </c>
+      <c r="P253" t="n">
         <v>51.20414</v>
       </c>
-      <c r="P253" t="n">
+      <c r="Q253" t="n">
         <v>-0.16001</v>
       </c>
     </row>
@@ -19230,10 +20495,15 @@
           <t>NA</t>
         </is>
       </c>
-      <c r="O254" t="n">
+      <c r="O254" t="inlineStr">
+        <is>
+          <t xml:space="preserve">3-4InnovationWay NorthStaffsBusinessPark StokeonTrent Staffordshire ST6 4BF </t>
+        </is>
+      </c>
+      <c r="P254" t="n">
         <v>52.97147</v>
       </c>
-      <c r="P254" t="n">
+      <c r="Q254" t="n">
         <v>-2.05616</v>
       </c>
     </row>
@@ -19304,10 +20574,15 @@
           <t>NA</t>
         </is>
       </c>
-      <c r="O255" t="n">
+      <c r="O255" t="inlineStr">
+        <is>
+          <t>President Way Luton Bedfordshire LU2 9NL UK</t>
+        </is>
+      </c>
+      <c r="P255" t="n">
         <v>51.88297</v>
       </c>
-      <c r="P255" t="n">
+      <c r="Q255" t="n">
         <v>-0.37896</v>
       </c>
     </row>
@@ -19378,10 +20653,15 @@
           <t>NA</t>
         </is>
       </c>
-      <c r="O256" t="n">
+      <c r="O256" t="inlineStr">
+        <is>
+          <t>CB21 6AL Cambridgeshire</t>
+        </is>
+      </c>
+      <c r="P256" t="n">
         <v>52.1178</v>
       </c>
-      <c r="P256" t="n">
+      <c r="Q256" t="n">
         <v>0.22007</v>
       </c>
     </row>
@@ -19453,10 +20733,15 @@
           <t>NA</t>
         </is>
       </c>
-      <c r="O257" t="n">
+      <c r="O257" t="inlineStr">
+        <is>
+          <t>GU3 1LR Surrey</t>
+        </is>
+      </c>
+      <c r="P257" t="n">
         <v>51.27919</v>
       </c>
-      <c r="P257" t="n">
+      <c r="Q257" t="n">
         <v>-1.06606</v>
       </c>
     </row>
@@ -19527,10 +20812,15 @@
           <t>NA</t>
         </is>
       </c>
-      <c r="O258" t="n">
+      <c r="O258" t="inlineStr">
+        <is>
+          <t>Bradford BD7 1DP United Kingdom</t>
+        </is>
+      </c>
+      <c r="P258" t="n">
         <v>53.7926</v>
       </c>
-      <c r="P258" t="n">
+      <c r="Q258" t="n">
         <v>-1.76578</v>
       </c>
     </row>
@@ -19601,10 +20891,15 @@
           <t>NA</t>
         </is>
       </c>
-      <c r="O259" t="n">
+      <c r="O259" t="inlineStr">
+        <is>
+          <t>KEDLESTON ROAD DERBY DERBYSHIRE DE22 1GB UNITED KINGDOM</t>
+        </is>
+      </c>
+      <c r="P259" t="n">
         <v>52.92971</v>
       </c>
-      <c r="P259" t="n">
+      <c r="Q259" t="n">
         <v>-1.48335</v>
       </c>
     </row>
@@ -19675,10 +20970,15 @@
           <t>Accredited by British Council</t>
         </is>
       </c>
-      <c r="O260" t="n">
+      <c r="O260" t="inlineStr">
+        <is>
+          <t>Innovation Park Triumph Road Nottingham NG7 2TU UK</t>
+        </is>
+      </c>
+      <c r="P260" t="n">
         <v>52.99289</v>
       </c>
-      <c r="P260" t="n">
+      <c r="Q260" t="n">
         <v>-1.28651</v>
       </c>
     </row>
@@ -19749,10 +21049,15 @@
           <t>NA</t>
         </is>
       </c>
-      <c r="O261" t="n">
+      <c r="O261" t="inlineStr">
+        <is>
+          <t>United Kingdom</t>
+        </is>
+      </c>
+      <c r="P261" t="n">
         <v>53.38099</v>
       </c>
-      <c r="P261" t="n">
+      <c r="Q261" t="n">
         <v>-1.49022</v>
       </c>
     </row>
@@ -19823,10 +21128,15 @@
           <t>NA</t>
         </is>
       </c>
-      <c r="O262" t="n">
+      <c r="O262" t="inlineStr">
+        <is>
+          <t>School Engineering Mi Building, City Campus South Wulfruna Street  Wolverhampton  Wv1 1ly United Kingdom</t>
+        </is>
+      </c>
+      <c r="P262" t="n">
         <v>52.5871</v>
       </c>
-      <c r="P262" t="n">
+      <c r="Q262" t="n">
         <v>-2.12676</v>
       </c>
     </row>
@@ -19897,10 +21207,15 @@
           <t>ISO 9001:2015, AS 9100D</t>
         </is>
       </c>
-      <c r="O263" t="n">
+      <c r="O263" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Castle Business Park Pavilion Way Loughborough Leicestershire LE11 5GW </t>
+        </is>
+      </c>
+      <c r="P263" t="n">
         <v>52.78361</v>
       </c>
-      <c r="P263" t="n">
+      <c r="Q263" t="n">
         <v>-1.20959</v>
       </c>
     </row>
@@ -19971,10 +21286,15 @@
           <t>ISO 9001:2015, UKAS</t>
         </is>
       </c>
-      <c r="O264" t="n">
+      <c r="O264" t="inlineStr">
+        <is>
+          <t>SL6 1AP Buckinghamshire</t>
+        </is>
+      </c>
+      <c r="P264" t="n">
         <v>51.5188</v>
       </c>
-      <c r="P264" t="n">
+      <c r="Q264" t="n">
         <v>-0.7151</v>
       </c>
     </row>
@@ -20045,10 +21365,15 @@
           <t>ISO 9001:2015, UKAS, ISO 17025:2017, CHAS</t>
         </is>
       </c>
-      <c r="O265" t="n">
+      <c r="O265" t="inlineStr">
+        <is>
+          <t>B63 2RR West Midlands</t>
+        </is>
+      </c>
+      <c r="P265" t="n">
         <v>52.71805</v>
       </c>
-      <c r="P265" t="n">
+      <c r="Q265" t="n">
         <v>-2.4644</v>
       </c>
     </row>
@@ -20119,10 +21444,15 @@
           <t>ISO 9001 18001, AS9120</t>
         </is>
       </c>
-      <c r="O266" t="n">
+      <c r="O266" t="inlineStr">
+        <is>
+          <t>B69 2BN West Midlands</t>
+        </is>
+      </c>
+      <c r="P266" t="n">
         <v>52.50149</v>
       </c>
-      <c r="P266" t="n">
+      <c r="Q266" t="n">
         <v>-2.02758</v>
       </c>
     </row>
@@ -20193,10 +21523,15 @@
           <t>NA</t>
         </is>
       </c>
-      <c r="O267" t="n">
+      <c r="O267" t="inlineStr">
+        <is>
+          <t>MK8 0AB Buckinghamshire</t>
+        </is>
+      </c>
+      <c r="P267" t="n">
         <v>52.48007</v>
       </c>
-      <c r="P267" t="n">
+      <c r="Q267" t="n">
         <v>-1.90382</v>
       </c>
     </row>
@@ -20267,10 +21602,15 @@
           <t>NA</t>
         </is>
       </c>
-      <c r="O268" t="n">
+      <c r="O268" t="inlineStr">
+        <is>
+          <t>Sunderland Software Centre, Tavistock Place Sunderland SR1 1PB Poland</t>
+        </is>
+      </c>
+      <c r="P268" t="n">
         <v>54.90423</v>
       </c>
-      <c r="P268" t="n">
+      <c r="Q268" t="n">
         <v>-1.37788</v>
       </c>
     </row>
@@ -20342,10 +21682,15 @@
           <t>NA</t>
         </is>
       </c>
-      <c r="O269" t="n">
+      <c r="O269" t="inlineStr">
+        <is>
+          <t>MK43 0AL Bedfordshire</t>
+        </is>
+      </c>
+      <c r="P269" t="n">
         <v>39.390897</v>
       </c>
-      <c r="P269" t="n">
+      <c r="Q269" t="n">
         <v>-99.066067</v>
       </c>
     </row>
@@ -20416,11 +21761,16 @@
           <t>NA</t>
         </is>
       </c>
-      <c r="O270" t="n">
-        <v>52.48684</v>
+      <c r="O270" t="inlineStr">
+        <is>
+          <t>B7 4SL West Midlands</t>
+        </is>
       </c>
       <c r="P270" t="n">
-        <v>-1.88568</v>
+        <v>52.49925</v>
+      </c>
+      <c r="Q270" t="n">
+        <v>-1.86677</v>
       </c>
     </row>
     <row r="271">
@@ -20490,10 +21840,15 @@
           <t>IATF 16949:2016, ISO 9001:2015, ISO 14001:2015</t>
         </is>
       </c>
-      <c r="O271" t="n">
+      <c r="O271" t="inlineStr">
+        <is>
+          <t>11 Fenton Way Basildon SS15 6LY United KIngdom</t>
+        </is>
+      </c>
+      <c r="P271" t="n">
         <v>51.57653</v>
       </c>
-      <c r="P271" t="n">
+      <c r="Q271" t="n">
         <v>0.40861</v>
       </c>
     </row>
@@ -20564,10 +21919,15 @@
           <t>UKAS</t>
         </is>
       </c>
-      <c r="O272" t="n">
+      <c r="O272" t="inlineStr">
+        <is>
+          <t>TR16 4AX Cornwall</t>
+        </is>
+      </c>
+      <c r="P272" t="n">
         <v>50.24494</v>
       </c>
-      <c r="P272" t="n">
+      <c r="Q272" t="n">
         <v>-5.22816</v>
       </c>
     </row>
@@ -20638,10 +21998,15 @@
           <t>Nadcap, ISO/IEC 17025</t>
         </is>
       </c>
-      <c r="O273" t="n">
+      <c r="O273" t="inlineStr">
+        <is>
+          <t>OX16 3JU Oxfordshire</t>
+        </is>
+      </c>
+      <c r="P273" t="n">
         <v>52.07301</v>
       </c>
-      <c r="P273" t="n">
+      <c r="Q273" t="n">
         <v>-1.32148</v>
       </c>
     </row>
@@ -20712,10 +22077,15 @@
           <t>ISO 9001 14001, UKAS</t>
         </is>
       </c>
-      <c r="O274" t="n">
+      <c r="O274" t="inlineStr">
+        <is>
+          <t xml:space="preserve">9 Meadow Street Sheffield S3 7BL </t>
+        </is>
+      </c>
+      <c r="P274" t="n">
         <v>53.58431</v>
       </c>
-      <c r="P274" t="n">
+      <c r="Q274" t="n">
         <v>-1.49517</v>
       </c>
     </row>
@@ -20786,10 +22156,15 @@
           <t>ISO 9001:2008, AS9100C, Nadcap</t>
         </is>
       </c>
-      <c r="O275" t="n">
+      <c r="O275" t="inlineStr">
+        <is>
+          <t>Whitnick Business Park  Coalville   LE67 4JP United Kingdom</t>
+        </is>
+      </c>
+      <c r="P275" t="n">
         <v>52.76173</v>
       </c>
-      <c r="P275" t="n">
+      <c r="Q275" t="n">
         <v>-1.2985</v>
       </c>
     </row>
@@ -20860,10 +22235,15 @@
           <t>OHSAS 18001</t>
         </is>
       </c>
-      <c r="O276" t="n">
+      <c r="O276" t="inlineStr">
+        <is>
+          <t>University of Warwick International Manufacturing Centre Coventry United Kingdom CV4 7AL United Kingdom</t>
+        </is>
+      </c>
+      <c r="P276" t="n">
         <v>41.7265</v>
       </c>
-      <c r="P276" t="n">
+      <c r="Q276" t="n">
         <v>-71.45627</v>
       </c>
     </row>
@@ -20934,10 +22314,15 @@
           <t>NA</t>
         </is>
       </c>
-      <c r="O277" t="n">
+      <c r="O277" t="inlineStr">
+        <is>
+          <t>DE65 5BU Derbyshire</t>
+        </is>
+      </c>
+      <c r="P277" t="n">
         <v>52.86704</v>
       </c>
-      <c r="P277" t="n">
+      <c r="Q277" t="n">
         <v>-1.6849</v>
       </c>
     </row>
